--- a/price-summary/tickers.xlsx
+++ b/price-summary/tickers.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$635</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="1226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="1230">
   <si>
     <t>Vietinbank</t>
   </si>
@@ -3702,6 +3705,18 @@
   </si>
   <si>
     <t>NVB</t>
+  </si>
+  <si>
+    <t>CTR</t>
+  </si>
+  <si>
+    <t>Tổng Công ty Cổ phần Công trình Viettel</t>
+  </si>
+  <si>
+    <t>PVB</t>
+  </si>
+  <si>
+    <t>Công ty cổ phần Bọc ống Dầu khí Việt Nam</t>
   </si>
 </sst>
 </file>
@@ -4040,10 +4055,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D633"/>
+  <dimension ref="A1:D635"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6398,13 +6413,13 @@
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>375</v>
+        <v>1229</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>376</v>
+        <v>1228</v>
       </c>
       <c r="D187" s="1"/>
     </row>
@@ -6413,10 +6428,10 @@
         <v>374</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="D188" s="1"/>
     </row>
@@ -6425,36 +6440,36 @@
         <v>374</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="D189" s="1"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>374</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="D190" s="1"/>
+        <v>380</v>
+      </c>
+      <c r="D190" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>374</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D191" s="1"/>
     </row>
@@ -6463,10 +6478,10 @@
         <v>374</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>301</v>
+        <v>383</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>302</v>
+        <v>384</v>
       </c>
       <c r="D192" s="1"/>
     </row>
@@ -6475,10 +6490,10 @@
         <v>374</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="D193" s="1"/>
     </row>
@@ -6487,10 +6502,10 @@
         <v>374</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>385</v>
+        <v>291</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>386</v>
+        <v>292</v>
       </c>
       <c r="D194" s="1"/>
     </row>
@@ -6499,10 +6514,10 @@
         <v>374</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D195" s="1"/>
     </row>
@@ -6511,10 +6526,10 @@
         <v>374</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="D196" s="1"/>
     </row>
@@ -6523,10 +6538,10 @@
         <v>374</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D197" s="1"/>
     </row>
@@ -6535,10 +6550,10 @@
         <v>374</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D198" s="1"/>
     </row>
@@ -6547,10 +6562,10 @@
         <v>374</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D199" s="1"/>
     </row>
@@ -6559,10 +6574,10 @@
         <v>374</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D200" s="1"/>
     </row>
@@ -6571,10 +6586,10 @@
         <v>374</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D201" s="1"/>
     </row>
@@ -6583,10 +6598,10 @@
         <v>374</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D202" s="1"/>
     </row>
@@ -6595,10 +6610,10 @@
         <v>374</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D203" s="1"/>
     </row>
@@ -6607,10 +6622,10 @@
         <v>374</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D204" s="1"/>
     </row>
@@ -6619,10 +6634,10 @@
         <v>374</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D205" s="1"/>
     </row>
@@ -6631,10 +6646,10 @@
         <v>374</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D206" s="1"/>
     </row>
@@ -6643,10 +6658,10 @@
         <v>374</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D207" s="1"/>
     </row>
@@ -6655,10 +6670,10 @@
         <v>374</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C208" s="3" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D208" s="1"/>
     </row>
@@ -6667,10 +6682,10 @@
         <v>374</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>331</v>
+        <v>413</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>332</v>
+        <v>414</v>
       </c>
       <c r="D209" s="1"/>
     </row>
@@ -6679,10 +6694,10 @@
         <v>374</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>415</v>
+        <v>331</v>
       </c>
       <c r="C210" s="3" t="s">
-        <v>416</v>
+        <v>332</v>
       </c>
       <c r="D210" s="1"/>
     </row>
@@ -6691,10 +6706,10 @@
         <v>374</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>313</v>
+        <v>415</v>
       </c>
       <c r="C211" s="3" t="s">
-        <v>314</v>
+        <v>416</v>
       </c>
       <c r="D211" s="1"/>
     </row>
@@ -6703,10 +6718,10 @@
         <v>374</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>417</v>
+        <v>313</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>418</v>
+        <v>314</v>
       </c>
       <c r="D212" s="1"/>
     </row>
@@ -6715,10 +6730,10 @@
         <v>374</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D213" s="1"/>
     </row>
@@ -6727,10 +6742,10 @@
         <v>374</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C214" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="D214" s="1"/>
     </row>
@@ -6739,10 +6754,10 @@
         <v>374</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C215" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D215" s="1"/>
     </row>
@@ -6751,10 +6766,10 @@
         <v>374</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D216" s="1"/>
     </row>
@@ -6763,10 +6778,10 @@
         <v>374</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="C217" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D217" s="1"/>
     </row>
@@ -6775,10 +6790,10 @@
         <v>374</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D218" s="1"/>
     </row>
@@ -6787,10 +6802,10 @@
         <v>374</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C219" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D219" s="1"/>
     </row>
@@ -6799,10 +6814,10 @@
         <v>374</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="C220" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D220" s="1"/>
     </row>
@@ -6811,10 +6826,10 @@
         <v>374</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C221" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D221" s="1"/>
     </row>
@@ -6823,10 +6838,10 @@
         <v>374</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C222" s="3" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D222" s="1"/>
     </row>
@@ -6835,10 +6850,10 @@
         <v>374</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="C223" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D223" s="1"/>
     </row>
@@ -6847,10 +6862,10 @@
         <v>374</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C224" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D224" s="1"/>
     </row>
@@ -6859,10 +6874,10 @@
         <v>374</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C225" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D225" s="1"/>
     </row>
@@ -6871,10 +6886,10 @@
         <v>374</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D226" s="1"/>
     </row>
@@ -6883,10 +6898,10 @@
         <v>374</v>
       </c>
       <c r="B227" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D227" s="1"/>
     </row>
@@ -6895,10 +6910,10 @@
         <v>374</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C228" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="D228" s="1"/>
     </row>
@@ -6907,10 +6922,10 @@
         <v>374</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C229" s="3" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="D229" s="1"/>
     </row>
@@ -6919,10 +6934,10 @@
         <v>374</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C230" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D230" s="1"/>
     </row>
@@ -6931,10 +6946,10 @@
         <v>374</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C231" s="3" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D231" s="1"/>
     </row>
@@ -6943,10 +6958,10 @@
         <v>374</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C232" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D232" s="1"/>
     </row>
@@ -6955,10 +6970,10 @@
         <v>374</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C233" s="3" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D233" s="1"/>
     </row>
@@ -6967,74 +6982,74 @@
         <v>374</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C234" s="3" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="D234" s="1"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
-        <v>481</v>
+        <v>374</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C235" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>462</v>
+      </c>
+      <c r="D235" s="1"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>481</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C236" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="D236" s="1"/>
+        <v>464</v>
+      </c>
+      <c r="D236" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>481</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="C237" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>466</v>
+      </c>
+      <c r="D237" s="1"/>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>481</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C238" s="3" t="s">
-        <v>470</v>
-      </c>
-      <c r="D238" s="1"/>
+        <v>468</v>
+      </c>
+      <c r="D238" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>481</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D239" s="1"/>
     </row>
@@ -7043,10 +7058,10 @@
         <v>481</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C240" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="D240" s="1"/>
     </row>
@@ -7055,48 +7070,48 @@
         <v>481</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C241" s="3" t="s">
-        <v>476</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="D241" s="1"/>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>481</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C242" s="3" t="s">
-        <v>478</v>
-      </c>
-      <c r="D242" s="1"/>
+        <v>476</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>481</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="C243" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D243" s="1"/>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="C244" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D244" s="1"/>
     </row>
@@ -7105,10 +7120,10 @@
         <v>482</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>469</v>
+        <v>483</v>
       </c>
       <c r="C245" s="3" t="s">
-        <v>470</v>
+        <v>484</v>
       </c>
       <c r="D245" s="1"/>
     </row>
@@ -7117,10 +7132,10 @@
         <v>482</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="C246" s="3" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="D246" s="1"/>
     </row>
@@ -7129,10 +7144,10 @@
         <v>482</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C247" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D247" s="1"/>
     </row>
@@ -7141,10 +7156,10 @@
         <v>482</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C248" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D248" s="1"/>
     </row>
@@ -7153,10 +7168,10 @@
         <v>482</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C249" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D249" s="1"/>
     </row>
@@ -7165,10 +7180,10 @@
         <v>482</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C250" s="3" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D250" s="1"/>
     </row>
@@ -7177,10 +7192,10 @@
         <v>482</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C251" s="3" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D251" s="1"/>
     </row>
@@ -7189,10 +7204,10 @@
         <v>482</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="C252" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D252" s="1"/>
     </row>
@@ -7201,10 +7216,10 @@
         <v>482</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C253" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D253" s="1"/>
     </row>
@@ -7213,10 +7228,10 @@
         <v>482</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C254" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D254" s="1"/>
     </row>
@@ -7225,10 +7240,10 @@
         <v>482</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C255" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D255" s="1"/>
     </row>
@@ -7237,10 +7252,10 @@
         <v>482</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C256" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D256" s="1"/>
     </row>
@@ -7249,10 +7264,10 @@
         <v>482</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C257" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D257" s="1"/>
     </row>
@@ -7261,10 +7276,10 @@
         <v>482</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C258" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D258" s="1"/>
     </row>
@@ -7273,10 +7288,10 @@
         <v>482</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C259" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D259" s="1"/>
     </row>
@@ -7285,10 +7300,10 @@
         <v>482</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C260" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D260" s="1"/>
     </row>
@@ -7297,10 +7312,10 @@
         <v>482</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C261" s="3" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D261" s="1"/>
     </row>
@@ -7309,22 +7324,22 @@
         <v>482</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C262" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D262" s="1"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
-        <v>519</v>
+        <v>482</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C263" s="3" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D263" s="1"/>
     </row>
@@ -7333,10 +7348,10 @@
         <v>519</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>190</v>
+        <v>520</v>
       </c>
       <c r="C264" s="3" t="s">
-        <v>191</v>
+        <v>521</v>
       </c>
       <c r="D264" s="1"/>
     </row>
@@ -7345,10 +7360,10 @@
         <v>519</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>522</v>
+        <v>190</v>
       </c>
       <c r="C265" s="3" t="s">
-        <v>523</v>
+        <v>191</v>
       </c>
       <c r="D265" s="1"/>
     </row>
@@ -7357,10 +7372,10 @@
         <v>519</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C266" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="D266" s="1"/>
     </row>
@@ -7369,10 +7384,10 @@
         <v>519</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C267" s="3" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="D267" s="1"/>
     </row>
@@ -7381,10 +7396,10 @@
         <v>519</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C268" s="3" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="D268" s="1"/>
     </row>
@@ -7393,10 +7408,10 @@
         <v>519</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C269" s="3" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="D269" s="1"/>
     </row>
@@ -7405,10 +7420,10 @@
         <v>519</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C270" s="3" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="D270" s="1"/>
     </row>
@@ -7417,36 +7432,36 @@
         <v>519</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C271" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="D271" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>533</v>
+      </c>
+      <c r="D271" s="1"/>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>519</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C272" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="D272" s="1"/>
+        <v>535</v>
+      </c>
+      <c r="D272" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>519</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C273" s="3" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D273" s="1"/>
     </row>
@@ -7455,24 +7470,22 @@
         <v>519</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>539</v>
+      </c>
+      <c r="D274" s="1"/>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>519</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D275" s="1" t="s">
         <v>121</v>
@@ -7483,22 +7496,24 @@
         <v>519</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="D276" s="1"/>
+        <v>543</v>
+      </c>
+      <c r="D276" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>519</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="D277" s="1"/>
     </row>
@@ -7507,10 +7522,10 @@
         <v>519</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="D278" s="1"/>
     </row>
@@ -7519,10 +7534,10 @@
         <v>519</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="D279" s="1"/>
     </row>
@@ -7531,10 +7546,10 @@
         <v>519</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="D280" s="1"/>
     </row>
@@ -7543,10 +7558,10 @@
         <v>519</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D281" s="1"/>
     </row>
@@ -7555,10 +7570,10 @@
         <v>519</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D282" s="1"/>
     </row>
@@ -7567,10 +7582,10 @@
         <v>519</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="D283" s="1"/>
     </row>
@@ -7579,10 +7594,10 @@
         <v>519</v>
       </c>
       <c r="B284" s="3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="D284" s="1"/>
     </row>
@@ -7591,10 +7606,10 @@
         <v>519</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>217</v>
+        <v>561</v>
       </c>
       <c r="D285" s="1"/>
     </row>
@@ -7603,10 +7618,10 @@
         <v>519</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>564</v>
+        <v>217</v>
       </c>
       <c r="D286" s="1"/>
     </row>
@@ -7615,10 +7630,10 @@
         <v>519</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D287" s="1"/>
     </row>
@@ -7627,10 +7642,10 @@
         <v>519</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="D288" s="1"/>
     </row>
@@ -7639,10 +7654,10 @@
         <v>519</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="D289" s="1"/>
     </row>
@@ -7651,10 +7666,10 @@
         <v>519</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="D290" s="1"/>
     </row>
@@ -7663,10 +7678,10 @@
         <v>519</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="D291" s="1"/>
     </row>
@@ -7675,10 +7690,10 @@
         <v>519</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D292" s="1"/>
     </row>
@@ -7687,10 +7702,10 @@
         <v>519</v>
       </c>
       <c r="B293" s="3" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C293" s="3" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="D293" s="1"/>
     </row>
@@ -7699,10 +7714,10 @@
         <v>519</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C294" s="3" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="D294" s="1"/>
     </row>
@@ -7711,10 +7726,10 @@
         <v>519</v>
       </c>
       <c r="B295" s="3" t="s">
-        <v>546</v>
+        <v>579</v>
       </c>
       <c r="C295" s="3" t="s">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="D295" s="1"/>
     </row>
@@ -7723,10 +7738,10 @@
         <v>519</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C296" s="3" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="D296" s="1"/>
     </row>
@@ -7735,10 +7750,10 @@
         <v>519</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C297" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="D297" s="1"/>
     </row>
@@ -7747,10 +7762,10 @@
         <v>519</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>577</v>
+        <v>556</v>
       </c>
       <c r="C298" s="3" t="s">
-        <v>578</v>
+        <v>557</v>
       </c>
       <c r="D298" s="1"/>
     </row>
@@ -7759,10 +7774,10 @@
         <v>519</v>
       </c>
       <c r="B299" s="3" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="C299" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="D299" s="1"/>
     </row>
@@ -7771,10 +7786,10 @@
         <v>519</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="C300" s="3" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="D300" s="1"/>
     </row>
@@ -7783,10 +7798,10 @@
         <v>519</v>
       </c>
       <c r="B301" s="3" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="C301" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="D301" s="1"/>
     </row>
@@ -7795,10 +7810,10 @@
         <v>519</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="C302" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="D302" s="1"/>
     </row>
@@ -7807,10 +7822,10 @@
         <v>519</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="C303" s="3" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="D303" s="1"/>
     </row>
@@ -7819,10 +7834,10 @@
         <v>519</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C304" s="3" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="D304" s="1"/>
     </row>
@@ -7831,10 +7846,10 @@
         <v>519</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>544</v>
+        <v>583</v>
       </c>
       <c r="C305" s="3" t="s">
-        <v>545</v>
+        <v>584</v>
       </c>
       <c r="D305" s="1"/>
     </row>
@@ -7843,10 +7858,10 @@
         <v>519</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C306" s="3" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="D306" s="1"/>
     </row>
@@ -7855,10 +7870,10 @@
         <v>519</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="C307" s="3" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="D307" s="1"/>
     </row>
@@ -7867,10 +7882,10 @@
         <v>519</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="C308" s="3" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="D308" s="1"/>
     </row>
@@ -7879,22 +7894,22 @@
         <v>519</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="C309" s="3" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="D309" s="1"/>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>585</v>
+        <v>519</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>586</v>
+        <v>558</v>
       </c>
       <c r="C310" s="3" t="s">
-        <v>587</v>
+        <v>559</v>
       </c>
       <c r="D310" s="1"/>
     </row>
@@ -7903,10 +7918,10 @@
         <v>585</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C311" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="D311" s="1"/>
     </row>
@@ -7915,36 +7930,36 @@
         <v>585</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="C312" s="3" t="s">
-        <v>591</v>
-      </c>
-      <c r="D312" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>589</v>
+      </c>
+      <c r="D312" s="1"/>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C313" s="3" t="s">
-        <v>593</v>
-      </c>
-      <c r="D313" s="1"/>
+        <v>591</v>
+      </c>
+      <c r="D313" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B314" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C314" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D314" s="1"/>
     </row>
@@ -7953,36 +7968,36 @@
         <v>585</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C315" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="D315" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>595</v>
+      </c>
+      <c r="D315" s="1"/>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="C316" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="D316" s="1"/>
+        <v>597</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C317" s="3" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="D317" s="1"/>
     </row>
@@ -7991,10 +8006,10 @@
         <v>585</v>
       </c>
       <c r="B318" s="3" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="C318" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D318" s="1"/>
     </row>
@@ -8003,10 +8018,10 @@
         <v>585</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C319" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D319" s="1"/>
     </row>
@@ -8015,10 +8030,10 @@
         <v>585</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C320" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D320" s="1"/>
     </row>
@@ -8027,10 +8042,10 @@
         <v>585</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C321" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D321" s="1"/>
     </row>
@@ -8039,10 +8054,10 @@
         <v>585</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="C322" s="3" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D322" s="1"/>
     </row>
@@ -8051,10 +8066,10 @@
         <v>585</v>
       </c>
       <c r="B323" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C323" s="3" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D323" s="1"/>
     </row>
@@ -8063,10 +8078,10 @@
         <v>585</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C324" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D324" s="1"/>
     </row>
@@ -8075,10 +8090,10 @@
         <v>585</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C325" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D325" s="1"/>
     </row>
@@ -8087,10 +8102,10 @@
         <v>585</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="C326" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D326" s="1"/>
     </row>
@@ -8099,10 +8114,10 @@
         <v>585</v>
       </c>
       <c r="B327" s="3" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="C327" s="3" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D327" s="1"/>
     </row>
@@ -8111,10 +8126,10 @@
         <v>585</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="C328" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D328" s="1"/>
     </row>
@@ -8123,10 +8138,10 @@
         <v>585</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C329" s="3" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D329" s="1"/>
     </row>
@@ -8135,10 +8150,10 @@
         <v>585</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C330" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D330" s="1"/>
     </row>
@@ -8147,10 +8162,10 @@
         <v>585</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C331" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D331" s="1"/>
     </row>
@@ -8159,10 +8174,10 @@
         <v>585</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="C332" s="3" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D332" s="1"/>
     </row>
@@ -8171,10 +8186,10 @@
         <v>585</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C333" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D333" s="1"/>
     </row>
@@ -8183,36 +8198,36 @@
         <v>585</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C334" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="D334" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>633</v>
+      </c>
+      <c r="D334" s="1"/>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C335" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="D335" s="1"/>
+        <v>635</v>
+      </c>
+      <c r="D335" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C336" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D336" s="1"/>
     </row>
@@ -8221,10 +8236,10 @@
         <v>585</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C337" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D337" s="1"/>
     </row>
@@ -8233,10 +8248,10 @@
         <v>585</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C338" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D338" s="1"/>
     </row>
@@ -8245,10 +8260,10 @@
         <v>585</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C339" s="3" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D339" s="1"/>
     </row>
@@ -8257,10 +8272,10 @@
         <v>585</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C340" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D340" s="1"/>
     </row>
@@ -8269,10 +8284,10 @@
         <v>585</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C341" s="3" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="D341" s="1"/>
     </row>
@@ -8281,10 +8296,10 @@
         <v>585</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C342" s="3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="D342" s="1"/>
     </row>
@@ -8293,10 +8308,10 @@
         <v>585</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C343" s="3" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D343" s="1"/>
     </row>
@@ -8305,22 +8320,24 @@
         <v>585</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C344" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D344" s="1"/>
+        <v>653</v>
+      </c>
+      <c r="D344" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C345" s="3" t="s">
-        <v>656</v>
+        <v>195</v>
       </c>
       <c r="D345" s="1"/>
     </row>
@@ -8329,62 +8346,62 @@
         <v>585</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C346" s="3" t="s">
-        <v>658</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>656</v>
+      </c>
+      <c r="D346" s="1"/>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C347" s="3" t="s">
-        <v>660</v>
-      </c>
-      <c r="D347" s="1"/>
+        <v>658</v>
+      </c>
+      <c r="D347" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C348" s="3" t="s">
-        <v>662</v>
-      </c>
-      <c r="D348" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>660</v>
+      </c>
+      <c r="D348" s="1"/>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C349" s="3" t="s">
-        <v>664</v>
-      </c>
-      <c r="D349" s="1"/>
+        <v>662</v>
+      </c>
+      <c r="D349" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C350" s="3" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="D350" s="1"/>
     </row>
@@ -8393,10 +8410,10 @@
         <v>585</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C351" s="3" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D351" s="1"/>
     </row>
@@ -8405,10 +8422,10 @@
         <v>585</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="C352" s="3" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="D352" s="1"/>
     </row>
@@ -8417,36 +8434,36 @@
         <v>585</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="C353" s="3" t="s">
-        <v>672</v>
-      </c>
-      <c r="D353" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>670</v>
+      </c>
+      <c r="D353" s="1"/>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C354" s="3" t="s">
-        <v>674</v>
-      </c>
-      <c r="D354" s="1"/>
+        <v>672</v>
+      </c>
+      <c r="D354" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C355" s="3" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D355" s="1"/>
     </row>
@@ -8455,10 +8472,10 @@
         <v>585</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C356" s="3" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D356" s="1"/>
     </row>
@@ -8467,10 +8484,10 @@
         <v>585</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="C357" s="3" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D357" s="1"/>
     </row>
@@ -8479,10 +8496,10 @@
         <v>585</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C358" s="3" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D358" s="1"/>
     </row>
@@ -8491,10 +8508,10 @@
         <v>585</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="C359" s="3" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D359" s="1"/>
     </row>
@@ -8503,10 +8520,10 @@
         <v>585</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="C360" s="3" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D360" s="1"/>
     </row>
@@ -8515,10 +8532,10 @@
         <v>585</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="C361" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D361" s="1"/>
     </row>
@@ -8527,10 +8544,10 @@
         <v>585</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="C362" s="3" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D362" s="1"/>
     </row>
@@ -8539,36 +8556,36 @@
         <v>585</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="C363" s="3" t="s">
-        <v>692</v>
-      </c>
-      <c r="D363" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>690</v>
+      </c>
+      <c r="D363" s="1"/>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="C364" s="3" t="s">
-        <v>694</v>
-      </c>
-      <c r="D364" s="1"/>
+        <v>692</v>
+      </c>
+      <c r="D364" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="C365" s="3" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D365" s="1"/>
     </row>
@@ -8577,10 +8594,10 @@
         <v>585</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C366" s="3" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D366" s="1"/>
     </row>
@@ -8589,10 +8606,10 @@
         <v>585</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D367" s="1"/>
     </row>
@@ -8601,10 +8618,10 @@
         <v>585</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="C368" s="3" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D368" s="1"/>
     </row>
@@ -8613,10 +8630,10 @@
         <v>585</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="C369" s="3" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D369" s="1"/>
     </row>
@@ -8625,10 +8642,10 @@
         <v>585</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="C370" s="3" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D370" s="1"/>
     </row>
@@ -8637,10 +8654,10 @@
         <v>585</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="C371" s="3" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D371" s="1"/>
     </row>
@@ -8649,10 +8666,10 @@
         <v>585</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C372" s="3" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D372" s="1"/>
     </row>
@@ -8661,10 +8678,10 @@
         <v>585</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C373" s="3" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D373" s="1"/>
     </row>
@@ -8673,10 +8690,10 @@
         <v>585</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C374" s="3" t="s">
-        <v>258</v>
+        <v>712</v>
       </c>
       <c r="D374" s="1"/>
     </row>
@@ -8685,10 +8702,10 @@
         <v>585</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C375" s="3" t="s">
-        <v>715</v>
+        <v>258</v>
       </c>
       <c r="D375" s="1"/>
     </row>
@@ -8697,10 +8714,10 @@
         <v>585</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C376" s="3" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="D376" s="1"/>
     </row>
@@ -8709,10 +8726,10 @@
         <v>585</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="D377" s="1"/>
     </row>
@@ -8721,10 +8738,10 @@
         <v>585</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="C378" s="3" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="D378" s="1"/>
     </row>
@@ -8733,10 +8750,10 @@
         <v>585</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="C379" s="3" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="D379" s="1"/>
     </row>
@@ -8745,10 +8762,10 @@
         <v>585</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="C380" s="3" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="D380" s="1"/>
     </row>
@@ -8757,36 +8774,36 @@
         <v>585</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="C381" s="3" t="s">
-        <v>727</v>
-      </c>
-      <c r="D381" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>725</v>
+      </c>
+      <c r="D381" s="1"/>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>729</v>
-      </c>
-      <c r="D382" s="1"/>
+        <v>727</v>
+      </c>
+      <c r="D382" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C383" s="3" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="D383" s="1"/>
     </row>
@@ -8795,10 +8812,10 @@
         <v>585</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D384" s="1"/>
     </row>
@@ -8807,10 +8824,10 @@
         <v>585</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="C385" s="3" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="D385" s="1"/>
     </row>
@@ -8819,10 +8836,10 @@
         <v>585</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="C386" s="3" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="D386" s="1"/>
     </row>
@@ -8831,10 +8848,10 @@
         <v>585</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="C387" s="3" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="D387" s="1"/>
     </row>
@@ -8843,10 +8860,10 @@
         <v>585</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="C388" s="3" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="D388" s="1"/>
     </row>
@@ -8855,10 +8872,10 @@
         <v>585</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="C389" s="3" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="D389" s="1"/>
     </row>
@@ -8867,10 +8884,10 @@
         <v>585</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="C390" s="3" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="D390" s="1"/>
     </row>
@@ -8879,10 +8896,10 @@
         <v>585</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C391" s="3" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="D391" s="1"/>
     </row>
@@ -8891,10 +8908,10 @@
         <v>585</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="C392" s="3" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="D392" s="1"/>
     </row>
@@ -8903,10 +8920,10 @@
         <v>585</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="C393" s="3" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="D393" s="1"/>
     </row>
@@ -8915,10 +8932,10 @@
         <v>585</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="C394" s="3" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="D394" s="1"/>
     </row>
@@ -8927,10 +8944,10 @@
         <v>585</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="C395" s="3" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="D395" s="1"/>
     </row>
@@ -8939,10 +8956,10 @@
         <v>585</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="C396" s="3" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="D396" s="1"/>
     </row>
@@ -8951,10 +8968,10 @@
         <v>585</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="C397" s="3" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="D397" s="1"/>
     </row>
@@ -8963,10 +8980,10 @@
         <v>585</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="C398" s="3" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="D398" s="1"/>
     </row>
@@ -8975,10 +8992,10 @@
         <v>585</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C399" s="3" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="D399" s="1"/>
     </row>
@@ -8987,10 +9004,10 @@
         <v>585</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C400" s="3" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="D400" s="1"/>
     </row>
@@ -8999,10 +9016,10 @@
         <v>585</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="C401" s="3" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="D401" s="1"/>
     </row>
@@ -9011,10 +9028,10 @@
         <v>585</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="C402" s="3" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="D402" s="1"/>
     </row>
@@ -9023,10 +9040,10 @@
         <v>585</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="C403" s="3" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="D403" s="1"/>
     </row>
@@ -9035,10 +9052,10 @@
         <v>585</v>
       </c>
       <c r="B404" s="3" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="C404" s="3" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="D404" s="1"/>
     </row>
@@ -9047,10 +9064,10 @@
         <v>585</v>
       </c>
       <c r="B405" s="3" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="C405" s="3" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="D405" s="1"/>
     </row>
@@ -9059,10 +9076,10 @@
         <v>585</v>
       </c>
       <c r="B406" s="3" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C406" s="3" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="D406" s="1"/>
     </row>
@@ -9071,10 +9088,10 @@
         <v>585</v>
       </c>
       <c r="B407" s="3" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="C407" s="3" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="D407" s="1"/>
     </row>
@@ -9083,10 +9100,10 @@
         <v>585</v>
       </c>
       <c r="B408" s="3" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="C408" s="3" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="D408" s="1"/>
     </row>
@@ -9095,10 +9112,10 @@
         <v>585</v>
       </c>
       <c r="B409" s="3" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="C409" s="3" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="D409" s="1"/>
     </row>
@@ -9107,10 +9124,10 @@
         <v>585</v>
       </c>
       <c r="B410" s="3" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C410" s="3" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="D410" s="1"/>
     </row>
@@ -9119,10 +9136,10 @@
         <v>585</v>
       </c>
       <c r="B411" s="3" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C411" s="3" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="D411" s="1"/>
     </row>
@@ -9131,10 +9148,10 @@
         <v>585</v>
       </c>
       <c r="B412" s="3" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C412" s="3" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="D412" s="1"/>
     </row>
@@ -9143,10 +9160,10 @@
         <v>585</v>
       </c>
       <c r="B413" s="3" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C413" s="3" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="D413" s="1"/>
     </row>
@@ -9155,10 +9172,10 @@
         <v>585</v>
       </c>
       <c r="B414" s="3" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C414" s="3" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="D414" s="1"/>
     </row>
@@ -9167,10 +9184,10 @@
         <v>585</v>
       </c>
       <c r="B415" s="3" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C415" s="3" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="D415" s="1"/>
     </row>
@@ -9179,10 +9196,10 @@
         <v>585</v>
       </c>
       <c r="B416" s="3" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C416" s="3" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="D416" s="1"/>
     </row>
@@ -9191,10 +9208,10 @@
         <v>585</v>
       </c>
       <c r="B417" s="3" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C417" s="3" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="D417" s="1"/>
     </row>
@@ -9203,10 +9220,10 @@
         <v>585</v>
       </c>
       <c r="B418" s="3" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C418" s="3" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="D418" s="1"/>
     </row>
@@ -9215,36 +9232,36 @@
         <v>585</v>
       </c>
       <c r="B419" s="3" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C419" s="3" t="s">
-        <v>803</v>
-      </c>
-      <c r="D419" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>801</v>
+      </c>
+      <c r="D419" s="1"/>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B420" s="3" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C420" s="3" t="s">
-        <v>805</v>
-      </c>
-      <c r="D420" s="1"/>
+        <v>803</v>
+      </c>
+      <c r="D420" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B421" s="3" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C421" s="3" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="D421" s="1"/>
     </row>
@@ -9253,10 +9270,10 @@
         <v>585</v>
       </c>
       <c r="B422" s="3" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C422" s="3" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="D422" s="1"/>
     </row>
@@ -9265,10 +9282,10 @@
         <v>585</v>
       </c>
       <c r="B423" s="3" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C423" s="3" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="D423" s="1"/>
     </row>
@@ -9277,10 +9294,10 @@
         <v>585</v>
       </c>
       <c r="B424" s="3" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C424" s="3" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="D424" s="1"/>
     </row>
@@ -9289,10 +9306,10 @@
         <v>585</v>
       </c>
       <c r="B425" s="3" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C425" s="3" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D425" s="1"/>
     </row>
@@ -9301,10 +9318,10 @@
         <v>585</v>
       </c>
       <c r="B426" s="3" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C426" s="3" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D426" s="1"/>
     </row>
@@ -9313,10 +9330,10 @@
         <v>585</v>
       </c>
       <c r="B427" s="3" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C427" s="3" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="D427" s="1"/>
     </row>
@@ -9325,10 +9342,10 @@
         <v>585</v>
       </c>
       <c r="B428" s="3" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C428" s="3" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="D428" s="1"/>
     </row>
@@ -9337,10 +9354,10 @@
         <v>585</v>
       </c>
       <c r="B429" s="3" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C429" s="3" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="D429" s="1"/>
     </row>
@@ -9349,10 +9366,10 @@
         <v>585</v>
       </c>
       <c r="B430" s="3" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C430" s="3" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="D430" s="1"/>
     </row>
@@ -9361,10 +9378,10 @@
         <v>585</v>
       </c>
       <c r="B431" s="3" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C431" s="3" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D431" s="1"/>
     </row>
@@ -9373,10 +9390,10 @@
         <v>585</v>
       </c>
       <c r="B432" s="3" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C432" s="3" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="D432" s="1"/>
     </row>
@@ -9385,10 +9402,10 @@
         <v>585</v>
       </c>
       <c r="B433" s="3" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="C433" s="3" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D433" s="1"/>
     </row>
@@ -9397,10 +9414,10 @@
         <v>585</v>
       </c>
       <c r="B434" s="3" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="C434" s="3" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="D434" s="1"/>
     </row>
@@ -9409,10 +9426,10 @@
         <v>585</v>
       </c>
       <c r="B435" s="3" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="C435" s="3" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="D435" s="1"/>
     </row>
@@ -9421,36 +9438,36 @@
         <v>585</v>
       </c>
       <c r="B436" s="3" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="C436" s="3" t="s">
-        <v>837</v>
-      </c>
-      <c r="D436" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>835</v>
+      </c>
+      <c r="D436" s="1"/>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B437" s="3" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="C437" s="3" t="s">
-        <v>839</v>
-      </c>
-      <c r="D437" s="1"/>
+        <v>837</v>
+      </c>
+      <c r="D437" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B438" s="3" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="C438" s="3" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D438" s="1"/>
     </row>
@@ -9459,10 +9476,10 @@
         <v>585</v>
       </c>
       <c r="B439" s="3" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="C439" s="3" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="D439" s="1"/>
     </row>
@@ -9471,10 +9488,10 @@
         <v>585</v>
       </c>
       <c r="B440" s="3" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="C440" s="3" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="D440" s="1"/>
     </row>
@@ -9483,10 +9500,10 @@
         <v>585</v>
       </c>
       <c r="B441" s="3" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="C441" s="3" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="D441" s="1"/>
     </row>
@@ -9495,10 +9512,10 @@
         <v>585</v>
       </c>
       <c r="B442" s="3" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C442" s="3" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="D442" s="1"/>
     </row>
@@ -9507,36 +9524,36 @@
         <v>585</v>
       </c>
       <c r="B443" s="3" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="C443" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="D443" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>849</v>
+      </c>
+      <c r="D443" s="1"/>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B444" s="3" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C444" s="3" t="s">
-        <v>853</v>
-      </c>
-      <c r="D444" s="1"/>
+        <v>851</v>
+      </c>
+      <c r="D444" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B445" s="3" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="C445" s="3" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D445" s="1"/>
     </row>
@@ -9545,10 +9562,10 @@
         <v>585</v>
       </c>
       <c r="B446" s="3" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C446" s="3" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="D446" s="1"/>
     </row>
@@ -9557,10 +9574,10 @@
         <v>585</v>
       </c>
       <c r="B447" s="3" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C447" s="3" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="D447" s="1"/>
     </row>
@@ -9569,10 +9586,10 @@
         <v>585</v>
       </c>
       <c r="B448" s="3" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C448" s="3" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D448" s="1"/>
     </row>
@@ -9581,10 +9598,10 @@
         <v>585</v>
       </c>
       <c r="B449" s="3" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="C449" s="3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D449" s="1"/>
     </row>
@@ -9593,10 +9610,10 @@
         <v>585</v>
       </c>
       <c r="B450" s="3" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="C450" s="3" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D450" s="1"/>
     </row>
@@ -9605,36 +9622,36 @@
         <v>585</v>
       </c>
       <c r="B451" s="3" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="C451" s="3" t="s">
-        <v>867</v>
-      </c>
-      <c r="D451" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>865</v>
+      </c>
+      <c r="D451" s="1"/>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B452" s="3" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="C452" s="3" t="s">
-        <v>869</v>
-      </c>
-      <c r="D452" s="1"/>
+        <v>867</v>
+      </c>
+      <c r="D452" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B453" s="3" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="C453" s="3" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D453" s="1"/>
     </row>
@@ -9643,10 +9660,10 @@
         <v>585</v>
       </c>
       <c r="B454" s="3" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="C454" s="3" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D454" s="1"/>
     </row>
@@ -9655,10 +9672,10 @@
         <v>585</v>
       </c>
       <c r="B455" s="3" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="C455" s="3" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D455" s="1"/>
     </row>
@@ -9667,10 +9684,10 @@
         <v>585</v>
       </c>
       <c r="B456" s="3" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="C456" s="3" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D456" s="1"/>
     </row>
@@ -9679,10 +9696,10 @@
         <v>585</v>
       </c>
       <c r="B457" s="3" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C457" s="3" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D457" s="1"/>
     </row>
@@ -9691,10 +9708,10 @@
         <v>585</v>
       </c>
       <c r="B458" s="3" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="C458" s="3" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="D458" s="1"/>
     </row>
@@ -9703,10 +9720,10 @@
         <v>585</v>
       </c>
       <c r="B459" s="3" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="C459" s="3" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="D459" s="1"/>
     </row>
@@ -9715,36 +9732,36 @@
         <v>585</v>
       </c>
       <c r="B460" s="3" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="C460" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="D460" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>883</v>
+      </c>
+      <c r="D460" s="1"/>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B461" s="3" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="C461" s="3" t="s">
-        <v>887</v>
-      </c>
-      <c r="D461" s="1"/>
+        <v>885</v>
+      </c>
+      <c r="D461" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B462" s="3" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="C462" s="3" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="D462" s="1"/>
     </row>
@@ -9753,10 +9770,10 @@
         <v>585</v>
       </c>
       <c r="B463" s="3" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="C463" s="3" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="D463" s="1"/>
     </row>
@@ -9765,24 +9782,22 @@
         <v>585</v>
       </c>
       <c r="B464" s="3" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="C464" s="3" t="s">
-        <v>893</v>
-      </c>
-      <c r="D464" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>891</v>
+      </c>
+      <c r="D464" s="1"/>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B465" s="3" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="C465" s="3" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="D465" s="1" t="s">
         <v>121</v>
@@ -9793,22 +9808,24 @@
         <v>585</v>
       </c>
       <c r="B466" s="3" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="C466" s="3" t="s">
-        <v>897</v>
-      </c>
-      <c r="D466" s="1"/>
+        <v>895</v>
+      </c>
+      <c r="D466" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B467" s="3" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C467" s="3" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D467" s="1"/>
     </row>
@@ -9817,10 +9834,10 @@
         <v>585</v>
       </c>
       <c r="B468" s="3" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="C468" s="3" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="D468" s="1"/>
     </row>
@@ -9829,10 +9846,10 @@
         <v>585</v>
       </c>
       <c r="B469" s="3" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="C469" s="3" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="D469" s="1"/>
     </row>
@@ -9841,36 +9858,36 @@
         <v>585</v>
       </c>
       <c r="B470" s="3" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C470" s="3" t="s">
-        <v>905</v>
-      </c>
-      <c r="D470" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>903</v>
+      </c>
+      <c r="D470" s="1"/>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B471" s="3" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C471" s="3" t="s">
-        <v>907</v>
-      </c>
-      <c r="D471" s="1"/>
+        <v>905</v>
+      </c>
+      <c r="D471" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" s="2" t="s">
         <v>585</v>
       </c>
       <c r="B472" s="3" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="C472" s="3" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="D472" s="1"/>
     </row>
@@ -9879,10 +9896,10 @@
         <v>585</v>
       </c>
       <c r="B473" s="3" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C473" s="3" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="D473" s="1"/>
     </row>
@@ -9891,10 +9908,10 @@
         <v>585</v>
       </c>
       <c r="B474" s="3" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="C474" s="3" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D474" s="1"/>
     </row>
@@ -9903,10 +9920,10 @@
         <v>585</v>
       </c>
       <c r="B475" s="3" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="C475" s="3" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D475" s="1"/>
     </row>
@@ -9915,10 +9932,10 @@
         <v>585</v>
       </c>
       <c r="B476" s="3" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C476" s="3" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D476" s="1"/>
     </row>
@@ -9927,10 +9944,10 @@
         <v>585</v>
       </c>
       <c r="B477" s="3" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C477" s="3" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="D477" s="1"/>
     </row>
@@ -9939,10 +9956,10 @@
         <v>585</v>
       </c>
       <c r="B478" s="3" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="C478" s="3" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="D478" s="1"/>
     </row>
@@ -9951,24 +9968,22 @@
         <v>585</v>
       </c>
       <c r="B479" s="3" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="C479" s="3" t="s">
-        <v>923</v>
-      </c>
-      <c r="D479" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>921</v>
+      </c>
+      <c r="D479" s="1"/>
     </row>
     <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" s="2" t="s">
-        <v>924</v>
+        <v>585</v>
       </c>
       <c r="B480" s="3" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C480" s="3" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>121</v>
@@ -9976,37 +9991,41 @@
     </row>
     <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" s="2" t="s">
-        <v>924</v>
+        <v>585</v>
       </c>
       <c r="B481" s="3" t="s">
-        <v>927</v>
+        <v>1227</v>
       </c>
       <c r="C481" s="3" t="s">
-        <v>928</v>
-      </c>
-      <c r="D481" s="1"/>
+        <v>1226</v>
+      </c>
+      <c r="D481" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" s="2" t="s">
         <v>924</v>
       </c>
       <c r="B482" s="3" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C482" s="3" t="s">
-        <v>930</v>
-      </c>
-      <c r="D482" s="1"/>
+        <v>926</v>
+      </c>
+      <c r="D482" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" s="2" t="s">
         <v>924</v>
       </c>
       <c r="B483" s="3" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="C483" s="3" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="D483" s="1"/>
     </row>
@@ -10015,10 +10034,10 @@
         <v>924</v>
       </c>
       <c r="B484" s="3" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C484" s="3" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="D484" s="1"/>
     </row>
@@ -10027,10 +10046,10 @@
         <v>924</v>
       </c>
       <c r="B485" s="3" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="C485" s="3" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="D485" s="1"/>
     </row>
@@ -10039,10 +10058,10 @@
         <v>924</v>
       </c>
       <c r="B486" s="3" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C486" s="3" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="D486" s="1"/>
     </row>
@@ -10051,10 +10070,10 @@
         <v>924</v>
       </c>
       <c r="B487" s="3" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="C487" s="3" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="D487" s="1"/>
     </row>
@@ -10063,10 +10082,10 @@
         <v>924</v>
       </c>
       <c r="B488" s="3" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="C488" s="3" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="D488" s="1"/>
     </row>
@@ -10075,10 +10094,10 @@
         <v>924</v>
       </c>
       <c r="B489" s="3" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C489" s="3" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="D489" s="1"/>
     </row>
@@ -10087,10 +10106,10 @@
         <v>924</v>
       </c>
       <c r="B490" s="3" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="C490" s="3" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="D490" s="1"/>
     </row>
@@ -10099,10 +10118,10 @@
         <v>924</v>
       </c>
       <c r="B491" s="3" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C491" s="3" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="D491" s="1"/>
     </row>
@@ -10111,10 +10130,10 @@
         <v>924</v>
       </c>
       <c r="B492" s="3" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="C492" s="3" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="D492" s="1"/>
     </row>
@@ -10123,10 +10142,10 @@
         <v>924</v>
       </c>
       <c r="B493" s="3" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C493" s="3" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="D493" s="1"/>
     </row>
@@ -10135,10 +10154,10 @@
         <v>924</v>
       </c>
       <c r="B494" s="3" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C494" s="3" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="D494" s="1"/>
     </row>
@@ -10147,10 +10166,10 @@
         <v>924</v>
       </c>
       <c r="B495" s="3" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C495" s="3" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="D495" s="1"/>
     </row>
@@ -10159,10 +10178,10 @@
         <v>924</v>
       </c>
       <c r="B496" s="3" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="C496" s="3" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="D496" s="1"/>
     </row>
@@ -10171,10 +10190,10 @@
         <v>924</v>
       </c>
       <c r="B497" s="3" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="C497" s="3" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="D497" s="1"/>
     </row>
@@ -10183,10 +10202,10 @@
         <v>924</v>
       </c>
       <c r="B498" s="3" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C498" s="3" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="D498" s="1"/>
     </row>
@@ -10195,24 +10214,22 @@
         <v>924</v>
       </c>
       <c r="B499" s="3" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C499" s="3" t="s">
-        <v>964</v>
-      </c>
-      <c r="D499" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>960</v>
+      </c>
+      <c r="D499" s="1"/>
     </row>
     <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" s="2" t="s">
         <v>924</v>
       </c>
       <c r="B500" s="3" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C500" s="3" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="D500" s="1"/>
     </row>
@@ -10221,10 +10238,10 @@
         <v>924</v>
       </c>
       <c r="B501" s="3" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C501" s="3" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="D501" s="1" t="s">
         <v>121</v>
@@ -10235,34 +10252,36 @@
         <v>924</v>
       </c>
       <c r="B502" s="3" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C502" s="3" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="D502" s="1"/>
     </row>
     <row r="503" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A503" s="2" t="s">
-        <v>971</v>
+        <v>924</v>
       </c>
       <c r="B503" s="3" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="C503" s="3" t="s">
-        <v>973</v>
-      </c>
-      <c r="D503" s="1"/>
+        <v>968</v>
+      </c>
+      <c r="D503" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="504" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A504" s="2" t="s">
-        <v>971</v>
+        <v>924</v>
       </c>
       <c r="B504" s="3" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="C504" s="3" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="D504" s="1"/>
     </row>
@@ -10271,10 +10290,10 @@
         <v>971</v>
       </c>
       <c r="B505" s="3" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C505" s="3" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="D505" s="1"/>
     </row>
@@ -10283,10 +10302,10 @@
         <v>971</v>
       </c>
       <c r="B506" s="3" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C506" s="3" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="D506" s="1"/>
     </row>
@@ -10295,10 +10314,10 @@
         <v>971</v>
       </c>
       <c r="B507" s="3" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C507" s="3" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="D507" s="1"/>
     </row>
@@ -10307,10 +10326,10 @@
         <v>971</v>
       </c>
       <c r="B508" s="3" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C508" s="3" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="D508" s="1"/>
     </row>
@@ -10319,10 +10338,10 @@
         <v>971</v>
       </c>
       <c r="B509" s="3" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C509" s="3" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="D509" s="1"/>
     </row>
@@ -10331,10 +10350,10 @@
         <v>971</v>
       </c>
       <c r="B510" s="3" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C510" s="3" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="D510" s="1"/>
     </row>
@@ -10343,10 +10362,10 @@
         <v>971</v>
       </c>
       <c r="B511" s="3" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C511" s="3" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="D511" s="1"/>
     </row>
@@ -10355,10 +10374,10 @@
         <v>971</v>
       </c>
       <c r="B512" s="3" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C512" s="3" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="D512" s="1"/>
     </row>
@@ -10367,10 +10386,10 @@
         <v>971</v>
       </c>
       <c r="B513" s="3" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C513" s="3" t="s">
-        <v>310</v>
+        <v>989</v>
       </c>
       <c r="D513" s="1"/>
     </row>
@@ -10379,10 +10398,10 @@
         <v>971</v>
       </c>
       <c r="B514" s="3" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="C514" s="3" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="D514" s="1"/>
     </row>
@@ -10391,10 +10410,10 @@
         <v>971</v>
       </c>
       <c r="B515" s="3" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="C515" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D515" s="1"/>
     </row>
@@ -10403,10 +10422,10 @@
         <v>971</v>
       </c>
       <c r="B516" s="3" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="C516" s="3" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="D516" s="1"/>
     </row>
@@ -10415,10 +10434,10 @@
         <v>971</v>
       </c>
       <c r="B517" s="3" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="C517" s="3" t="s">
-        <v>999</v>
+        <v>308</v>
       </c>
       <c r="D517" s="1"/>
     </row>
@@ -10427,10 +10446,10 @@
         <v>971</v>
       </c>
       <c r="B518" s="3" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="D518" s="1"/>
     </row>
@@ -10439,10 +10458,10 @@
         <v>971</v>
       </c>
       <c r="B519" s="3" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="D519" s="1"/>
     </row>
@@ -10451,10 +10470,10 @@
         <v>971</v>
       </c>
       <c r="B520" s="3" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="D520" s="1"/>
     </row>
@@ -10463,10 +10482,10 @@
         <v>971</v>
       </c>
       <c r="B521" s="3" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="D521" s="1"/>
     </row>
@@ -10475,10 +10494,10 @@
         <v>971</v>
       </c>
       <c r="B522" s="3" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="D522" s="1"/>
     </row>
@@ -10487,10 +10506,10 @@
         <v>971</v>
       </c>
       <c r="B523" s="3" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="D523" s="1"/>
     </row>
@@ -10499,10 +10518,10 @@
         <v>971</v>
       </c>
       <c r="B524" s="3" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>1013</v>
+        <v>1009</v>
       </c>
       <c r="D524" s="1"/>
     </row>
@@ -10511,10 +10530,10 @@
         <v>971</v>
       </c>
       <c r="B525" s="3" t="s">
-        <v>565</v>
+        <v>1010</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>566</v>
+        <v>1011</v>
       </c>
       <c r="D525" s="1"/>
     </row>
@@ -10523,10 +10542,10 @@
         <v>971</v>
       </c>
       <c r="B526" s="3" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C526" s="3" t="s">
-        <v>320</v>
+        <v>1013</v>
       </c>
       <c r="D526" s="1"/>
     </row>
@@ -10535,10 +10554,10 @@
         <v>971</v>
       </c>
       <c r="B527" s="3" t="s">
-        <v>1015</v>
+        <v>565</v>
       </c>
       <c r="C527" s="3" t="s">
-        <v>1016</v>
+        <v>566</v>
       </c>
       <c r="D527" s="1"/>
     </row>
@@ -10547,10 +10566,10 @@
         <v>971</v>
       </c>
       <c r="B528" s="3" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="C528" s="3" t="s">
-        <v>1018</v>
+        <v>320</v>
       </c>
       <c r="D528" s="1"/>
     </row>
@@ -10559,10 +10578,10 @@
         <v>971</v>
       </c>
       <c r="B529" s="3" t="s">
-        <v>1019</v>
+        <v>1015</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>193</v>
+        <v>1016</v>
       </c>
       <c r="D529" s="1"/>
     </row>
@@ -10571,10 +10590,10 @@
         <v>971</v>
       </c>
       <c r="B530" s="3" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D530" s="1"/>
     </row>
@@ -10583,10 +10602,10 @@
         <v>971</v>
       </c>
       <c r="B531" s="3" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>1023</v>
+        <v>193</v>
       </c>
       <c r="D531" s="1"/>
     </row>
@@ -10595,10 +10614,10 @@
         <v>971</v>
       </c>
       <c r="B532" s="3" t="s">
-        <v>1024</v>
+        <v>1020</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>1025</v>
+        <v>1021</v>
       </c>
       <c r="D532" s="1"/>
     </row>
@@ -10607,10 +10626,10 @@
         <v>971</v>
       </c>
       <c r="B533" s="3" t="s">
-        <v>1026</v>
+        <v>1022</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="D533" s="1"/>
     </row>
@@ -10619,10 +10638,10 @@
         <v>971</v>
       </c>
       <c r="B534" s="3" t="s">
-        <v>1028</v>
+        <v>1024</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>1029</v>
+        <v>1025</v>
       </c>
       <c r="D534" s="1"/>
     </row>
@@ -10631,10 +10650,10 @@
         <v>971</v>
       </c>
       <c r="B535" s="3" t="s">
-        <v>1030</v>
+        <v>1026</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>322</v>
+        <v>1027</v>
       </c>
       <c r="D535" s="1"/>
     </row>
@@ -10643,10 +10662,10 @@
         <v>971</v>
       </c>
       <c r="B536" s="3" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C536" s="3" t="s">
-        <v>326</v>
+        <v>1029</v>
       </c>
       <c r="D536" s="1"/>
     </row>
@@ -10655,10 +10674,10 @@
         <v>971</v>
       </c>
       <c r="B537" s="3" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="C537" s="3" t="s">
-        <v>1033</v>
+        <v>322</v>
       </c>
       <c r="D537" s="1"/>
     </row>
@@ -10667,10 +10686,10 @@
         <v>971</v>
       </c>
       <c r="B538" s="3" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="C538" s="3" t="s">
-        <v>1035</v>
+        <v>326</v>
       </c>
       <c r="D538" s="1"/>
     </row>
@@ -10679,10 +10698,10 @@
         <v>971</v>
       </c>
       <c r="B539" s="3" t="s">
-        <v>1036</v>
+        <v>1032</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>1037</v>
+        <v>1033</v>
       </c>
       <c r="D539" s="1"/>
     </row>
@@ -10691,10 +10710,10 @@
         <v>971</v>
       </c>
       <c r="B540" s="3" t="s">
-        <v>1038</v>
+        <v>1034</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>1039</v>
+        <v>1035</v>
       </c>
       <c r="D540" s="1"/>
     </row>
@@ -10703,10 +10722,10 @@
         <v>971</v>
       </c>
       <c r="B541" s="3" t="s">
-        <v>1040</v>
+        <v>1036</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>1041</v>
+        <v>1037</v>
       </c>
       <c r="D541" s="1"/>
     </row>
@@ -10715,10 +10734,10 @@
         <v>971</v>
       </c>
       <c r="B542" s="3" t="s">
-        <v>1042</v>
+        <v>1038</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>1043</v>
+        <v>1039</v>
       </c>
       <c r="D542" s="1"/>
     </row>
@@ -10727,10 +10746,10 @@
         <v>971</v>
       </c>
       <c r="B543" s="3" t="s">
-        <v>1044</v>
+        <v>1040</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="D543" s="1"/>
     </row>
@@ -10739,10 +10758,10 @@
         <v>971</v>
       </c>
       <c r="B544" s="3" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>370</v>
+        <v>1043</v>
       </c>
       <c r="D544" s="1"/>
     </row>
@@ -10751,10 +10770,10 @@
         <v>971</v>
       </c>
       <c r="B545" s="3" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="D545" s="1"/>
     </row>
@@ -10763,10 +10782,10 @@
         <v>971</v>
       </c>
       <c r="B546" s="3" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>1050</v>
+        <v>370</v>
       </c>
       <c r="D546" s="1"/>
     </row>
@@ -10775,10 +10794,10 @@
         <v>971</v>
       </c>
       <c r="B547" s="3" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="C547" s="3" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="D547" s="1"/>
     </row>
@@ -10787,10 +10806,10 @@
         <v>971</v>
       </c>
       <c r="B548" s="3" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="C548" s="3" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="D548" s="1"/>
     </row>
@@ -10799,10 +10818,10 @@
         <v>971</v>
       </c>
       <c r="B549" s="3" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="C549" s="3" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="D549" s="1"/>
     </row>
@@ -10811,10 +10830,10 @@
         <v>971</v>
       </c>
       <c r="B550" s="3" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="D550" s="1"/>
     </row>
@@ -10823,10 +10842,10 @@
         <v>971</v>
       </c>
       <c r="B551" s="3" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="D551" s="1"/>
     </row>
@@ -10835,10 +10854,10 @@
         <v>971</v>
       </c>
       <c r="B552" s="3" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="D552" s="1"/>
     </row>
@@ -10847,10 +10866,10 @@
         <v>971</v>
       </c>
       <c r="B553" s="3" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="D553" s="1"/>
     </row>
@@ -10859,10 +10878,10 @@
         <v>971</v>
       </c>
       <c r="B554" s="3" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="D554" s="1"/>
     </row>
@@ -10871,10 +10890,10 @@
         <v>971</v>
       </c>
       <c r="B555" s="3" t="s">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>354</v>
+        <v>1064</v>
       </c>
       <c r="D555" s="1"/>
     </row>
@@ -10883,10 +10902,10 @@
         <v>971</v>
       </c>
       <c r="B556" s="3" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="D556" s="1"/>
     </row>
@@ -10895,10 +10914,10 @@
         <v>971</v>
       </c>
       <c r="B557" s="3" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>1071</v>
+        <v>354</v>
       </c>
       <c r="D557" s="1"/>
     </row>
@@ -10907,10 +10926,10 @@
         <v>971</v>
       </c>
       <c r="B558" s="3" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C558" s="3" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="D558" s="1"/>
     </row>
@@ -10919,10 +10938,10 @@
         <v>971</v>
       </c>
       <c r="B559" s="3" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="C559" s="3" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="D559" s="1"/>
     </row>
@@ -10931,10 +10950,10 @@
         <v>971</v>
       </c>
       <c r="B560" s="3" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="C560" s="3" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="D560" s="1"/>
     </row>
@@ -10943,10 +10962,10 @@
         <v>971</v>
       </c>
       <c r="B561" s="3" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="D561" s="1"/>
     </row>
@@ -10955,10 +10974,10 @@
         <v>971</v>
       </c>
       <c r="B562" s="3" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="D562" s="1"/>
     </row>
@@ -10967,10 +10986,10 @@
         <v>971</v>
       </c>
       <c r="B563" s="3" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
       <c r="D563" s="1"/>
     </row>
@@ -10979,34 +10998,34 @@
         <v>971</v>
       </c>
       <c r="B564" s="3" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="D564" s="1"/>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A565" s="2" t="s">
-        <v>1086</v>
+        <v>971</v>
       </c>
       <c r="B565" s="3" t="s">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="D565" s="1"/>
     </row>
     <row r="566" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A566" s="2" t="s">
-        <v>1086</v>
+        <v>971</v>
       </c>
       <c r="B566" s="3" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="D566" s="1"/>
     </row>
@@ -11015,10 +11034,10 @@
         <v>1086</v>
       </c>
       <c r="B567" s="3" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="D567" s="1"/>
     </row>
@@ -11027,10 +11046,10 @@
         <v>1086</v>
       </c>
       <c r="B568" s="3" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="D568" s="1"/>
     </row>
@@ -11039,10 +11058,10 @@
         <v>1086</v>
       </c>
       <c r="B569" s="3" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="C569" s="3" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="D569" s="1"/>
     </row>
@@ -11051,10 +11070,10 @@
         <v>1086</v>
       </c>
       <c r="B570" s="3" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="C570" s="3" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="D570" s="1"/>
     </row>
@@ -11063,10 +11082,10 @@
         <v>1086</v>
       </c>
       <c r="B571" s="3" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="C571" s="3" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D571" s="1"/>
     </row>
@@ -11075,10 +11094,10 @@
         <v>1086</v>
       </c>
       <c r="B572" s="3" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="D572" s="1"/>
     </row>
@@ -11087,10 +11106,10 @@
         <v>1086</v>
       </c>
       <c r="B573" s="3" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="C573" s="3" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="D573" s="1"/>
     </row>
@@ -11099,10 +11118,10 @@
         <v>1086</v>
       </c>
       <c r="B574" s="3" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="C574" s="3" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="D574" s="1"/>
     </row>
@@ -11111,10 +11130,10 @@
         <v>1086</v>
       </c>
       <c r="B575" s="3" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="D575" s="1"/>
     </row>
@@ -11123,10 +11142,10 @@
         <v>1086</v>
       </c>
       <c r="B576" s="3" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="D576" s="1"/>
     </row>
@@ -11135,10 +11154,10 @@
         <v>1086</v>
       </c>
       <c r="B577" s="3" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="D577" s="1"/>
     </row>
@@ -11147,10 +11166,10 @@
         <v>1086</v>
       </c>
       <c r="B578" s="3" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="D578" s="1"/>
     </row>
@@ -11159,10 +11178,10 @@
         <v>1086</v>
       </c>
       <c r="B579" s="3" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="C579" s="3" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="D579" s="1"/>
     </row>
@@ -11171,50 +11190,46 @@
         <v>1086</v>
       </c>
       <c r="B580" s="3" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="C580" s="3" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="D580" s="1"/>
     </row>
     <row r="581" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A581" s="2" t="s">
-        <v>1119</v>
+        <v>1086</v>
       </c>
       <c r="B581" s="3" t="s">
-        <v>1120</v>
+        <v>1115</v>
       </c>
       <c r="C581" s="3" t="s">
-        <v>1121</v>
-      </c>
-      <c r="D581" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>1116</v>
+      </c>
+      <c r="D581" s="1"/>
     </row>
     <row r="582" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A582" s="2" t="s">
-        <v>1119</v>
+        <v>1086</v>
       </c>
       <c r="B582" s="3" t="s">
-        <v>1122</v>
+        <v>1117</v>
       </c>
       <c r="C582" s="3" t="s">
-        <v>1123</v>
-      </c>
-      <c r="D582" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>1118</v>
+      </c>
+      <c r="D582" s="1"/>
     </row>
     <row r="583" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A583" s="2" t="s">
         <v>1119</v>
       </c>
       <c r="B583" s="3" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
       <c r="D583" s="1" t="s">
         <v>121</v>
@@ -11225,36 +11240,38 @@
         <v>1119</v>
       </c>
       <c r="B584" s="3" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>1127</v>
-      </c>
-      <c r="D584" s="1"/>
+        <v>1123</v>
+      </c>
+      <c r="D584" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="585" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A585" s="2" t="s">
         <v>1119</v>
       </c>
       <c r="B585" s="3" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="D585" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="586" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A586" s="2" t="s">
         <v>1119</v>
       </c>
       <c r="B586" s="3" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="D586" s="1"/>
     </row>
@@ -11263,36 +11280,36 @@
         <v>1119</v>
       </c>
       <c r="B587" s="3" t="s">
-        <v>1132</v>
+        <v>1128</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>1133</v>
-      </c>
-      <c r="D587" s="1"/>
-    </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1129</v>
+      </c>
+      <c r="D587" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="588" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A588" s="2" t="s">
         <v>1119</v>
       </c>
       <c r="B588" s="3" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>1135</v>
-      </c>
-      <c r="D588" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>1131</v>
+      </c>
+      <c r="D588" s="1"/>
     </row>
     <row r="589" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A589" s="2" t="s">
         <v>1119</v>
       </c>
       <c r="B589" s="3" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="C589" s="3" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="D589" s="1"/>
     </row>
@@ -11301,48 +11318,48 @@
         <v>1119</v>
       </c>
       <c r="B590" s="3" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="C590" s="3" t="s">
-        <v>1139</v>
-      </c>
-      <c r="D590" s="1"/>
+        <v>1135</v>
+      </c>
+      <c r="D590" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="591" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A591" s="2" t="s">
         <v>1119</v>
       </c>
       <c r="B591" s="3" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C591" s="3" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D591" s="1"/>
+    </row>
+    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A592" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B592" s="3" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C592" s="3" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D592" s="1"/>
+    </row>
+    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A593" s="2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B593" s="3" t="s">
         <v>1140</v>
       </c>
-      <c r="C591" s="3" t="s">
+      <c r="C593" s="3" t="s">
         <v>1141</v>
-      </c>
-      <c r="D591" s="1"/>
-    </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A592" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B592" s="3" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C592" s="3" t="s">
-        <v>1144</v>
-      </c>
-      <c r="D592" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A593" s="1" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B593" s="3" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C593" s="3" t="s">
-        <v>1146</v>
       </c>
       <c r="D593" s="1"/>
     </row>
@@ -11351,22 +11368,24 @@
         <v>1142</v>
       </c>
       <c r="B594" s="3" t="s">
-        <v>1147</v>
+        <v>1143</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>1148</v>
-      </c>
-      <c r="D594" s="1"/>
+        <v>1144</v>
+      </c>
+      <c r="D594" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="595" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A595" s="1" t="s">
         <v>1142</v>
       </c>
       <c r="B595" s="3" t="s">
-        <v>1149</v>
+        <v>1145</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>1150</v>
+        <v>1146</v>
       </c>
       <c r="D595" s="1"/>
     </row>
@@ -11375,10 +11394,10 @@
         <v>1142</v>
       </c>
       <c r="B596" s="3" t="s">
-        <v>1151</v>
+        <v>1147</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>1152</v>
+        <v>1148</v>
       </c>
       <c r="D596" s="1"/>
     </row>
@@ -11387,10 +11406,10 @@
         <v>1142</v>
       </c>
       <c r="B597" s="3" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>1154</v>
+        <v>1150</v>
       </c>
       <c r="D597" s="1"/>
     </row>
@@ -11399,10 +11418,10 @@
         <v>1142</v>
       </c>
       <c r="B598" s="3" t="s">
-        <v>1155</v>
+        <v>1151</v>
       </c>
       <c r="C598" s="3" t="s">
-        <v>1156</v>
+        <v>1152</v>
       </c>
       <c r="D598" s="1"/>
     </row>
@@ -11411,10 +11430,10 @@
         <v>1142</v>
       </c>
       <c r="B599" s="3" t="s">
-        <v>1157</v>
+        <v>1153</v>
       </c>
       <c r="C599" s="3" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="D599" s="1"/>
     </row>
@@ -11423,10 +11442,10 @@
         <v>1142</v>
       </c>
       <c r="B600" s="3" t="s">
-        <v>1159</v>
+        <v>1155</v>
       </c>
       <c r="C600" s="3" t="s">
-        <v>1160</v>
+        <v>1156</v>
       </c>
       <c r="D600" s="1"/>
     </row>
@@ -11435,10 +11454,10 @@
         <v>1142</v>
       </c>
       <c r="B601" s="3" t="s">
-        <v>1161</v>
+        <v>1157</v>
       </c>
       <c r="C601" s="3" t="s">
-        <v>1162</v>
+        <v>1158</v>
       </c>
       <c r="D601" s="1"/>
     </row>
@@ -11447,10 +11466,10 @@
         <v>1142</v>
       </c>
       <c r="B602" s="3" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="C602" s="3" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="D602" s="1"/>
     </row>
@@ -11459,10 +11478,10 @@
         <v>1142</v>
       </c>
       <c r="B603" s="3" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="C603" s="3" t="s">
-        <v>1166</v>
+        <v>1162</v>
       </c>
       <c r="D603" s="1"/>
     </row>
@@ -11471,10 +11490,10 @@
         <v>1142</v>
       </c>
       <c r="B604" s="3" t="s">
-        <v>1167</v>
+        <v>1163</v>
       </c>
       <c r="C604" s="3" t="s">
-        <v>1168</v>
+        <v>1164</v>
       </c>
       <c r="D604" s="1"/>
     </row>
@@ -11483,10 +11502,10 @@
         <v>1142</v>
       </c>
       <c r="B605" s="3" t="s">
-        <v>1169</v>
+        <v>1165</v>
       </c>
       <c r="C605" s="3" t="s">
-        <v>1170</v>
+        <v>1166</v>
       </c>
       <c r="D605" s="1"/>
     </row>
@@ -11495,10 +11514,10 @@
         <v>1142</v>
       </c>
       <c r="B606" s="3" t="s">
-        <v>1171</v>
+        <v>1167</v>
       </c>
       <c r="C606" s="3" t="s">
-        <v>1172</v>
+        <v>1168</v>
       </c>
       <c r="D606" s="1"/>
     </row>
@@ -11507,10 +11526,10 @@
         <v>1142</v>
       </c>
       <c r="B607" s="3" t="s">
-        <v>1173</v>
+        <v>1169</v>
       </c>
       <c r="C607" s="3" t="s">
-        <v>1174</v>
+        <v>1170</v>
       </c>
       <c r="D607" s="1"/>
     </row>
@@ -11519,34 +11538,34 @@
         <v>1142</v>
       </c>
       <c r="B608" s="3" t="s">
-        <v>1175</v>
+        <v>1171</v>
       </c>
       <c r="C608" s="3" t="s">
-        <v>1176</v>
+        <v>1172</v>
       </c>
       <c r="D608" s="1"/>
     </row>
     <row r="609" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A609" s="1" t="s">
-        <v>1177</v>
+        <v>1142</v>
       </c>
       <c r="B609" s="3" t="s">
-        <v>1178</v>
+        <v>1173</v>
       </c>
       <c r="C609" s="3" t="s">
-        <v>1179</v>
+        <v>1174</v>
       </c>
       <c r="D609" s="1"/>
     </row>
     <row r="610" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A610" s="1" t="s">
-        <v>1177</v>
+        <v>1142</v>
       </c>
       <c r="B610" s="3" t="s">
-        <v>1180</v>
+        <v>1175</v>
       </c>
       <c r="C610" s="3" t="s">
-        <v>227</v>
+        <v>1176</v>
       </c>
       <c r="D610" s="1"/>
     </row>
@@ -11555,10 +11574,10 @@
         <v>1177</v>
       </c>
       <c r="B611" s="3" t="s">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="C611" s="3" t="s">
-        <v>1182</v>
+        <v>1179</v>
       </c>
       <c r="D611" s="1"/>
     </row>
@@ -11567,10 +11586,10 @@
         <v>1177</v>
       </c>
       <c r="B612" s="3" t="s">
-        <v>1183</v>
+        <v>1180</v>
       </c>
       <c r="C612" s="3" t="s">
-        <v>1184</v>
+        <v>227</v>
       </c>
       <c r="D612" s="1"/>
     </row>
@@ -11579,10 +11598,10 @@
         <v>1177</v>
       </c>
       <c r="B613" s="3" t="s">
-        <v>1185</v>
+        <v>1181</v>
       </c>
       <c r="C613" s="3" t="s">
-        <v>1186</v>
+        <v>1182</v>
       </c>
       <c r="D613" s="1"/>
     </row>
@@ -11591,10 +11610,10 @@
         <v>1177</v>
       </c>
       <c r="B614" s="3" t="s">
-        <v>1187</v>
+        <v>1183</v>
       </c>
       <c r="C614" s="3" t="s">
-        <v>1188</v>
+        <v>1184</v>
       </c>
       <c r="D614" s="1"/>
     </row>
@@ -11603,10 +11622,10 @@
         <v>1177</v>
       </c>
       <c r="B615" s="3" t="s">
-        <v>1189</v>
+        <v>1185</v>
       </c>
       <c r="C615" s="3" t="s">
-        <v>1190</v>
+        <v>1186</v>
       </c>
       <c r="D615" s="1"/>
     </row>
@@ -11615,10 +11634,10 @@
         <v>1177</v>
       </c>
       <c r="B616" s="3" t="s">
-        <v>1191</v>
+        <v>1187</v>
       </c>
       <c r="C616" s="3" t="s">
-        <v>1192</v>
+        <v>1188</v>
       </c>
       <c r="D616" s="1"/>
     </row>
@@ -11627,10 +11646,10 @@
         <v>1177</v>
       </c>
       <c r="B617" s="3" t="s">
-        <v>1193</v>
+        <v>1189</v>
       </c>
       <c r="C617" s="3" t="s">
-        <v>1194</v>
+        <v>1190</v>
       </c>
       <c r="D617" s="1"/>
     </row>
@@ -11639,34 +11658,34 @@
         <v>1177</v>
       </c>
       <c r="B618" s="3" t="s">
-        <v>1195</v>
+        <v>1191</v>
       </c>
       <c r="C618" s="3" t="s">
-        <v>1196</v>
+        <v>1192</v>
       </c>
       <c r="D618" s="1"/>
     </row>
     <row r="619" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A619" s="1" t="s">
-        <v>1197</v>
+        <v>1177</v>
       </c>
       <c r="B619" s="3" t="s">
-        <v>1198</v>
+        <v>1193</v>
       </c>
       <c r="C619" s="3" t="s">
-        <v>1199</v>
+        <v>1194</v>
       </c>
       <c r="D619" s="1"/>
     </row>
     <row r="620" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A620" s="1" t="s">
-        <v>1197</v>
+        <v>1177</v>
       </c>
       <c r="B620" s="3" t="s">
-        <v>1200</v>
+        <v>1195</v>
       </c>
       <c r="C620" s="3" t="s">
-        <v>1201</v>
+        <v>1196</v>
       </c>
       <c r="D620" s="1"/>
     </row>
@@ -11675,10 +11694,10 @@
         <v>1197</v>
       </c>
       <c r="B621" s="3" t="s">
-        <v>1202</v>
+        <v>1198</v>
       </c>
       <c r="C621" s="3" t="s">
-        <v>1203</v>
+        <v>1199</v>
       </c>
       <c r="D621" s="1"/>
     </row>
@@ -11687,10 +11706,10 @@
         <v>1197</v>
       </c>
       <c r="B622" s="3" t="s">
-        <v>1204</v>
+        <v>1200</v>
       </c>
       <c r="C622" s="3" t="s">
-        <v>1205</v>
+        <v>1201</v>
       </c>
       <c r="D622" s="1"/>
     </row>
@@ -11699,10 +11718,10 @@
         <v>1197</v>
       </c>
       <c r="B623" s="3" t="s">
-        <v>1206</v>
+        <v>1202</v>
       </c>
       <c r="C623" s="3" t="s">
-        <v>1207</v>
+        <v>1203</v>
       </c>
       <c r="D623" s="1"/>
     </row>
@@ -11711,10 +11730,10 @@
         <v>1197</v>
       </c>
       <c r="B624" s="3" t="s">
-        <v>1208</v>
+        <v>1204</v>
       </c>
       <c r="C624" s="3" t="s">
-        <v>1209</v>
+        <v>1205</v>
       </c>
       <c r="D624" s="1"/>
     </row>
@@ -11723,10 +11742,10 @@
         <v>1197</v>
       </c>
       <c r="B625" s="3" t="s">
-        <v>1210</v>
+        <v>1206</v>
       </c>
       <c r="C625" s="3" t="s">
-        <v>1211</v>
+        <v>1207</v>
       </c>
       <c r="D625" s="1"/>
     </row>
@@ -11735,10 +11754,10 @@
         <v>1197</v>
       </c>
       <c r="B626" s="3" t="s">
-        <v>1212</v>
+        <v>1208</v>
       </c>
       <c r="C626" s="3" t="s">
-        <v>1213</v>
+        <v>1209</v>
       </c>
       <c r="D626" s="1"/>
     </row>
@@ -11747,24 +11766,22 @@
         <v>1197</v>
       </c>
       <c r="B627" s="3" t="s">
-        <v>1214</v>
+        <v>1210</v>
       </c>
       <c r="C627" s="3" t="s">
-        <v>1215</v>
-      </c>
-      <c r="D627" s="1" t="s">
-        <v>121</v>
-      </c>
+        <v>1211</v>
+      </c>
+      <c r="D627" s="1"/>
     </row>
     <row r="628" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A628" s="1" t="s">
         <v>1197</v>
       </c>
       <c r="B628" s="3" t="s">
-        <v>1216</v>
+        <v>1212</v>
       </c>
       <c r="C628" s="3" t="s">
-        <v>1217</v>
+        <v>1213</v>
       </c>
       <c r="D628" s="1"/>
     </row>
@@ -11773,22 +11790,24 @@
         <v>1197</v>
       </c>
       <c r="B629" s="3" t="s">
-        <v>1218</v>
+        <v>1214</v>
       </c>
       <c r="C629" s="3" t="s">
-        <v>1088</v>
-      </c>
-      <c r="D629" s="1"/>
+        <v>1215</v>
+      </c>
+      <c r="D629" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="630" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A630" s="1" t="s">
         <v>1197</v>
       </c>
       <c r="B630" s="3" t="s">
-        <v>1219</v>
+        <v>1216</v>
       </c>
       <c r="C630" s="3" t="s">
-        <v>1220</v>
+        <v>1217</v>
       </c>
       <c r="D630" s="1"/>
     </row>
@@ -11797,10 +11816,10 @@
         <v>1197</v>
       </c>
       <c r="B631" s="3" t="s">
-        <v>1221</v>
+        <v>1218</v>
       </c>
       <c r="C631" s="3" t="s">
-        <v>1222</v>
+        <v>1088</v>
       </c>
       <c r="D631" s="1"/>
     </row>
@@ -11809,10 +11828,10 @@
         <v>1197</v>
       </c>
       <c r="B632" s="3" t="s">
-        <v>1223</v>
+        <v>1219</v>
       </c>
       <c r="C632" s="3" t="s">
-        <v>1224</v>
+        <v>1220</v>
       </c>
       <c r="D632" s="1"/>
     </row>
@@ -11821,14 +11840,39 @@
         <v>1197</v>
       </c>
       <c r="B633" s="3" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C633" s="3" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D633" s="1"/>
+    </row>
+    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A634" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B634" s="3" t="s">
+        <v>1223</v>
+      </c>
+      <c r="C634" s="3" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D634" s="1"/>
+    </row>
+    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A635" s="1" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B635" s="3" t="s">
         <v>1214</v>
       </c>
-      <c r="C633" s="3" t="s">
+      <c r="C635" s="3" t="s">
         <v>1215</v>
       </c>
-      <c r="D633" s="1"/>
+      <c r="D635" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D635"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/price-summary/tickers.xlsx
+++ b/price-summary/tickers.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20406"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\python\stockbox\price-summary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\binhnn2\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7650E03B-13BF-418D-9FC4-0EB1852D78A0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="bk" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$D$635</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">bk!$A$1:$D$635</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2371" uniqueCount="1319">
   <si>
     <t>Vietinbank</t>
   </si>
@@ -3717,13 +3719,280 @@
   </si>
   <si>
     <t>Công ty cổ phần Bọc ống Dầu khí Việt Nam</t>
+  </si>
+  <si>
+    <t>Ngân hàng</t>
+  </si>
+  <si>
+    <t>VPB</t>
+  </si>
+  <si>
+    <t>OCB</t>
+  </si>
+  <si>
+    <t>Chứng khoán</t>
+  </si>
+  <si>
+    <t>ORS</t>
+  </si>
+  <si>
+    <t>SBS</t>
+  </si>
+  <si>
+    <t>TVB</t>
+  </si>
+  <si>
+    <t>Bất động sản</t>
+  </si>
+  <si>
+    <t>TDV</t>
+  </si>
+  <si>
+    <t>Đầu tư công</t>
+  </si>
+  <si>
+    <t>KSB</t>
+  </si>
+  <si>
+    <t>BCC</t>
+  </si>
+  <si>
+    <t>HT1</t>
+  </si>
+  <si>
+    <t>HHV</t>
+  </si>
+  <si>
+    <t>C4G</t>
+  </si>
+  <si>
+    <t>C32</t>
+  </si>
+  <si>
+    <t>Cảng biển - Vận tải</t>
+  </si>
+  <si>
+    <t>Dệt may</t>
+  </si>
+  <si>
+    <t>MSH</t>
+  </si>
+  <si>
+    <t>TNG</t>
+  </si>
+  <si>
+    <t>GIL</t>
+  </si>
+  <si>
+    <t>TCM</t>
+  </si>
+  <si>
+    <t>Bảo hiểm</t>
+  </si>
+  <si>
+    <t>Than</t>
+  </si>
+  <si>
+    <t>TC6</t>
+  </si>
+  <si>
+    <t>TDN</t>
+  </si>
+  <si>
+    <t>TVD</t>
+  </si>
+  <si>
+    <t>NBC</t>
+  </si>
+  <si>
+    <t>Cao su</t>
+  </si>
+  <si>
+    <t>GVR</t>
+  </si>
+  <si>
+    <t>DPR</t>
+  </si>
+  <si>
+    <t>Dầu khí</t>
+  </si>
+  <si>
+    <t>PVC</t>
+  </si>
+  <si>
+    <t>CNG</t>
+  </si>
+  <si>
+    <t>Công nghệ</t>
+  </si>
+  <si>
+    <t>VGI</t>
+  </si>
+  <si>
+    <t>FOX</t>
+  </si>
+  <si>
+    <t>Thực phẩm - Chăn nuôi</t>
+  </si>
+  <si>
+    <t>SAB</t>
+  </si>
+  <si>
+    <t>VNM</t>
+  </si>
+  <si>
+    <t>SBT</t>
+  </si>
+  <si>
+    <t>HAG</t>
+  </si>
+  <si>
+    <t>DBC</t>
+  </si>
+  <si>
+    <t>KDC</t>
+  </si>
+  <si>
+    <t>LSS</t>
+  </si>
+  <si>
+    <t>TAR</t>
+  </si>
+  <si>
+    <t>LTG</t>
+  </si>
+  <si>
+    <t>SLS</t>
+  </si>
+  <si>
+    <t>BAF</t>
+  </si>
+  <si>
+    <t>Y tế - Dược</t>
+  </si>
+  <si>
+    <t>TNH</t>
+  </si>
+  <si>
+    <t>Hoa chất - phân bón</t>
+  </si>
+  <si>
+    <t>DDV</t>
+  </si>
+  <si>
+    <t>LAS</t>
+  </si>
+  <si>
+    <t>CSV</t>
+  </si>
+  <si>
+    <t>DCM</t>
+  </si>
+  <si>
+    <t>BFC</t>
+  </si>
+  <si>
+    <t>DPM</t>
+  </si>
+  <si>
+    <t>DGC</t>
+  </si>
+  <si>
+    <t>Bất động sản - Khu công nghiệp</t>
+  </si>
+  <si>
+    <t>IDC</t>
+  </si>
+  <si>
+    <t>SIP</t>
+  </si>
+  <si>
+    <t>VGC</t>
+  </si>
+  <si>
+    <t>Bán lẻ</t>
+  </si>
+  <si>
+    <t>MSN</t>
+  </si>
+  <si>
+    <t>PNJ</t>
+  </si>
+  <si>
+    <t>Thép</t>
+  </si>
+  <si>
+    <t>Thủy sản</t>
+  </si>
+  <si>
+    <t>ANV</t>
+  </si>
+  <si>
+    <t>CMX</t>
+  </si>
+  <si>
+    <t>VHC</t>
+  </si>
+  <si>
+    <t>IDI</t>
+  </si>
+  <si>
+    <t>Nước - Nhựa</t>
+  </si>
+  <si>
+    <t>AAA</t>
+  </si>
+  <si>
+    <t>BMP</t>
+  </si>
+  <si>
+    <t>APH</t>
+  </si>
+  <si>
+    <t>NTP</t>
+  </si>
+  <si>
+    <t>DAG</t>
+  </si>
+  <si>
+    <t>BWE</t>
+  </si>
+  <si>
+    <t>PLP</t>
+  </si>
+  <si>
+    <t>Điện</t>
+  </si>
+  <si>
+    <t>GEX</t>
+  </si>
+  <si>
+    <t>TV2</t>
+  </si>
+  <si>
+    <t>Vật liệu xây dựng</t>
+  </si>
+  <si>
+    <t>PLC</t>
+  </si>
+  <si>
+    <t>VCS</t>
+  </si>
+  <si>
+    <t>PTB</t>
+  </si>
+  <si>
+    <t>DHA</t>
+  </si>
+  <si>
+    <t>VLB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3744,13 +4013,33 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -3765,7 +4054,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3775,11 +4064,24 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -4054,20 +4356,1537 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE2BC7F2-F193-482B-A0D1-A52F76A1E9A9}">
+  <dimension ref="A1:B187"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="6" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="6" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="6" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="6" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="6" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="6" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B107" s="6" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="6" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="6" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B124" s="6" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="6" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="6" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="6" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="6" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="6" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="6" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="6" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="6" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="6" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="6" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="6" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B135" s="6" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="6" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="6" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="6" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="6" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B141" s="6" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B142" s="6" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B143" s="6" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="6" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B144" s="6" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="6" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B145" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="6" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" s="6" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B147" s="6" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" s="6" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="6" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="6" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="6" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="6" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="6" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="6" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="6" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="6" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="6" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="6" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" s="6" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" s="6" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="6" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="6" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B187">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D635"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="B185" sqref="B185"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.33203125" customWidth="1"/>
+    <col min="1" max="1" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>117</v>
       </c>
@@ -4081,7 +5900,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
@@ -4095,7 +5914,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>46</v>
       </c>
@@ -4109,7 +5928,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
@@ -4123,7 +5942,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -4137,7 +5956,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -4151,7 +5970,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>46</v>
       </c>
@@ -4165,7 +5984,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>46</v>
       </c>
@@ -4179,7 +5998,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>46</v>
       </c>
@@ -4193,7 +6012,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -4207,7 +6026,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>46</v>
       </c>
@@ -4221,7 +6040,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>46</v>
       </c>
@@ -4235,7 +6054,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>46</v>
       </c>
@@ -4249,7 +6068,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>46</v>
       </c>
@@ -4263,7 +6082,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>46</v>
       </c>
@@ -4277,7 +6096,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>46</v>
       </c>
@@ -4291,7 +6110,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>46</v>
       </c>
@@ -4305,7 +6124,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>46</v>
       </c>
@@ -4319,7 +6138,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>46</v>
       </c>
@@ -4333,7 +6152,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>46</v>
       </c>
@@ -4347,7 +6166,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>46</v>
       </c>
@@ -4361,7 +6180,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>46</v>
       </c>
@@ -4375,7 +6194,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -4389,7 +6208,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -4403,7 +6222,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>46</v>
       </c>
@@ -4417,7 +6236,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>73</v>
       </c>
@@ -4431,7 +6250,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>73</v>
       </c>
@@ -4445,7 +6264,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>73</v>
       </c>
@@ -4457,7 +6276,7 @@
       </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>73</v>
       </c>
@@ -4469,7 +6288,7 @@
       </c>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>73</v>
       </c>
@@ -4483,7 +6302,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
@@ -4495,7 +6314,7 @@
       </c>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>73</v>
       </c>
@@ -4507,7 +6326,7 @@
       </c>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>73</v>
       </c>
@@ -4519,7 +6338,7 @@
       </c>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>73</v>
       </c>
@@ -4531,7 +6350,7 @@
       </c>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>73</v>
       </c>
@@ -4545,7 +6364,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>73</v>
       </c>
@@ -4559,7 +6378,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
@@ -4571,7 +6390,7 @@
       </c>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>73</v>
       </c>
@@ -4583,7 +6402,7 @@
       </c>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>73</v>
       </c>
@@ -4595,7 +6414,7 @@
       </c>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>73</v>
       </c>
@@ -4607,7 +6426,7 @@
       </c>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>73</v>
       </c>
@@ -4619,7 +6438,7 @@
       </c>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>73</v>
       </c>
@@ -4631,7 +6450,7 @@
       </c>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>73</v>
       </c>
@@ -4643,7 +6462,7 @@
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>73</v>
       </c>
@@ -4655,7 +6474,7 @@
       </c>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>73</v>
       </c>
@@ -4667,7 +6486,7 @@
       </c>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>73</v>
       </c>
@@ -4679,7 +6498,7 @@
       </c>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>73</v>
       </c>
@@ -4691,7 +6510,7 @@
       </c>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>73</v>
       </c>
@@ -4703,7 +6522,7 @@
       </c>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>73</v>
       </c>
@@ -4715,7 +6534,7 @@
       </c>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>73</v>
       </c>
@@ -4727,7 +6546,7 @@
       </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>73</v>
       </c>
@@ -4739,7 +6558,7 @@
       </c>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>73</v>
       </c>
@@ -4751,7 +6570,7 @@
       </c>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>73</v>
       </c>
@@ -4763,7 +6582,7 @@
       </c>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>73</v>
       </c>
@@ -4775,7 +6594,7 @@
       </c>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>73</v>
       </c>
@@ -4787,7 +6606,7 @@
       </c>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>73</v>
       </c>
@@ -4799,7 +6618,7 @@
       </c>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>73</v>
       </c>
@@ -4811,7 +6630,7 @@
       </c>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>73</v>
       </c>
@@ -4823,7 +6642,7 @@
       </c>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>73</v>
       </c>
@@ -4835,7 +6654,7 @@
       </c>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>73</v>
       </c>
@@ -4847,7 +6666,7 @@
       </c>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>73</v>
       </c>
@@ -4859,7 +6678,7 @@
       </c>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>73</v>
       </c>
@@ -4871,7 +6690,7 @@
       </c>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>73</v>
       </c>
@@ -4883,7 +6702,7 @@
       </c>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>73</v>
       </c>
@@ -4895,7 +6714,7 @@
       </c>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>116</v>
       </c>
@@ -4909,7 +6728,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>116</v>
       </c>
@@ -4923,7 +6742,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>116</v>
       </c>
@@ -4937,7 +6756,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>116</v>
       </c>
@@ -4951,7 +6770,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>116</v>
       </c>
@@ -4965,7 +6784,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>116</v>
       </c>
@@ -4979,7 +6798,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>116</v>
       </c>
@@ -4993,7 +6812,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>116</v>
       </c>
@@ -5007,7 +6826,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>116</v>
       </c>
@@ -5021,7 +6840,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>116</v>
       </c>
@@ -5035,7 +6854,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>116</v>
       </c>
@@ -5049,7 +6868,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>116</v>
       </c>
@@ -5063,7 +6882,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>116</v>
       </c>
@@ -5077,7 +6896,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>116</v>
       </c>
@@ -5089,7 +6908,7 @@
       </c>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>116</v>
       </c>
@@ -5101,7 +6920,7 @@
       </c>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>116</v>
       </c>
@@ -5115,7 +6934,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>116</v>
       </c>
@@ -5127,7 +6946,7 @@
       </c>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>116</v>
       </c>
@@ -5141,7 +6960,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>116</v>
       </c>
@@ -5153,7 +6972,7 @@
       </c>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>116</v>
       </c>
@@ -5165,7 +6984,7 @@
       </c>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>116</v>
       </c>
@@ -5177,7 +6996,7 @@
       </c>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>236</v>
       </c>
@@ -5189,7 +7008,7 @@
       </c>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>236</v>
       </c>
@@ -5201,7 +7020,7 @@
       </c>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>236</v>
       </c>
@@ -5213,7 +7032,7 @@
       </c>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>236</v>
       </c>
@@ -5225,7 +7044,7 @@
       </c>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>236</v>
       </c>
@@ -5237,7 +7056,7 @@
       </c>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>236</v>
       </c>
@@ -5249,7 +7068,7 @@
       </c>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>236</v>
       </c>
@@ -5261,7 +7080,7 @@
       </c>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>236</v>
       </c>
@@ -5273,7 +7092,7 @@
       </c>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>236</v>
       </c>
@@ -5285,7 +7104,7 @@
       </c>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>236</v>
       </c>
@@ -5297,7 +7116,7 @@
       </c>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>236</v>
       </c>
@@ -5309,7 +7128,7 @@
       </c>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>236</v>
       </c>
@@ -5321,7 +7140,7 @@
       </c>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>236</v>
       </c>
@@ -5333,7 +7152,7 @@
       </c>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>236</v>
       </c>
@@ -5345,7 +7164,7 @@
       </c>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>236</v>
       </c>
@@ -5357,7 +7176,7 @@
       </c>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>236</v>
       </c>
@@ -5369,7 +7188,7 @@
       </c>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>236</v>
       </c>
@@ -5381,7 +7200,7 @@
       </c>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>236</v>
       </c>
@@ -5393,7 +7212,7 @@
       </c>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>236</v>
       </c>
@@ -5405,7 +7224,7 @@
       </c>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>236</v>
       </c>
@@ -5417,7 +7236,7 @@
       </c>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>236</v>
       </c>
@@ -5429,7 +7248,7 @@
       </c>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>236</v>
       </c>
@@ -5441,7 +7260,7 @@
       </c>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>236</v>
       </c>
@@ -5453,7 +7272,7 @@
       </c>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>236</v>
       </c>
@@ -5465,7 +7284,7 @@
       </c>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>236</v>
       </c>
@@ -5477,7 +7296,7 @@
       </c>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>236</v>
       </c>
@@ -5489,7 +7308,7 @@
       </c>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>236</v>
       </c>
@@ -5501,7 +7320,7 @@
       </c>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>236</v>
       </c>
@@ -5513,7 +7332,7 @@
       </c>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>236</v>
       </c>
@@ -5525,7 +7344,7 @@
       </c>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>236</v>
       </c>
@@ -5537,7 +7356,7 @@
       </c>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>236</v>
       </c>
@@ -5549,7 +7368,7 @@
       </c>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>236</v>
       </c>
@@ -5561,7 +7380,7 @@
       </c>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>288</v>
       </c>
@@ -5573,7 +7392,7 @@
       </c>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>288</v>
       </c>
@@ -5585,7 +7404,7 @@
       </c>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>288</v>
       </c>
@@ -5597,7 +7416,7 @@
       </c>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>288</v>
       </c>
@@ -5609,7 +7428,7 @@
       </c>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>288</v>
       </c>
@@ -5621,7 +7440,7 @@
       </c>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>288</v>
       </c>
@@ -5633,7 +7452,7 @@
       </c>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>288</v>
       </c>
@@ -5645,7 +7464,7 @@
       </c>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>288</v>
       </c>
@@ -5657,7 +7476,7 @@
       </c>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>288</v>
       </c>
@@ -5669,7 +7488,7 @@
       </c>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>288</v>
       </c>
@@ -5681,7 +7500,7 @@
       </c>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>288</v>
       </c>
@@ -5693,7 +7512,7 @@
       </c>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>288</v>
       </c>
@@ -5705,7 +7524,7 @@
       </c>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>288</v>
       </c>
@@ -5719,7 +7538,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>288</v>
       </c>
@@ -5731,7 +7550,7 @@
       </c>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>288</v>
       </c>
@@ -5743,7 +7562,7 @@
       </c>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>288</v>
       </c>
@@ -5755,7 +7574,7 @@
       </c>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>288</v>
       </c>
@@ -5769,7 +7588,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>288</v>
       </c>
@@ -5781,7 +7600,7 @@
       </c>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>288</v>
       </c>
@@ -5793,7 +7612,7 @@
       </c>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>288</v>
       </c>
@@ -5805,7 +7624,7 @@
       </c>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>288</v>
       </c>
@@ -5819,7 +7638,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>288</v>
       </c>
@@ -5831,7 +7650,7 @@
       </c>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>288</v>
       </c>
@@ -5843,7 +7662,7 @@
       </c>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>288</v>
       </c>
@@ -5855,7 +7674,7 @@
       </c>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>288</v>
       </c>
@@ -5867,7 +7686,7 @@
       </c>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>288</v>
       </c>
@@ -5879,7 +7698,7 @@
       </c>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>288</v>
       </c>
@@ -5891,7 +7710,7 @@
       </c>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>373</v>
       </c>
@@ -5903,7 +7722,7 @@
       </c>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>373</v>
       </c>
@@ -5915,7 +7734,7 @@
       </c>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>373</v>
       </c>
@@ -5929,7 +7748,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>373</v>
       </c>
@@ -5941,7 +7760,7 @@
       </c>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>373</v>
       </c>
@@ -5953,7 +7772,7 @@
       </c>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>373</v>
       </c>
@@ -5967,7 +7786,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>373</v>
       </c>
@@ -5981,7 +7800,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>373</v>
       </c>
@@ -5993,7 +7812,7 @@
       </c>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>373</v>
       </c>
@@ -6007,7 +7826,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>373</v>
       </c>
@@ -6019,7 +7838,7 @@
       </c>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>373</v>
       </c>
@@ -6033,7 +7852,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>373</v>
       </c>
@@ -6045,7 +7864,7 @@
       </c>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>373</v>
       </c>
@@ -6057,7 +7876,7 @@
       </c>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>373</v>
       </c>
@@ -6069,7 +7888,7 @@
       </c>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>373</v>
       </c>
@@ -6081,7 +7900,7 @@
       </c>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>373</v>
       </c>
@@ -6093,7 +7912,7 @@
       </c>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>373</v>
       </c>
@@ -6105,7 +7924,7 @@
       </c>
       <c r="D161" s="1"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>373</v>
       </c>
@@ -6117,7 +7936,7 @@
       </c>
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>373</v>
       </c>
@@ -6129,7 +7948,7 @@
       </c>
       <c r="D163" s="1"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>373</v>
       </c>
@@ -6143,7 +7962,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>373</v>
       </c>
@@ -6155,7 +7974,7 @@
       </c>
       <c r="D165" s="1"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>373</v>
       </c>
@@ -6167,7 +7986,7 @@
       </c>
       <c r="D166" s="1"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>373</v>
       </c>
@@ -6181,7 +8000,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>373</v>
       </c>
@@ -6193,7 +8012,7 @@
       </c>
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>373</v>
       </c>
@@ -6205,7 +8024,7 @@
       </c>
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>373</v>
       </c>
@@ -6219,7 +8038,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>373</v>
       </c>
@@ -6231,7 +8050,7 @@
       </c>
       <c r="D171" s="1"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>373</v>
       </c>
@@ -6243,7 +8062,7 @@
       </c>
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>373</v>
       </c>
@@ -6255,7 +8074,7 @@
       </c>
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>373</v>
       </c>
@@ -6267,7 +8086,7 @@
       </c>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>373</v>
       </c>
@@ -6279,7 +8098,7 @@
       </c>
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>373</v>
       </c>
@@ -6291,7 +8110,7 @@
       </c>
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>373</v>
       </c>
@@ -6303,7 +8122,7 @@
       </c>
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>373</v>
       </c>
@@ -6315,7 +8134,7 @@
       </c>
       <c r="D178" s="1"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>373</v>
       </c>
@@ -6327,7 +8146,7 @@
       </c>
       <c r="D179" s="1"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>373</v>
       </c>
@@ -6339,7 +8158,7 @@
       </c>
       <c r="D180" s="1"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>373</v>
       </c>
@@ -6351,7 +8170,7 @@
       </c>
       <c r="D181" s="1"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>373</v>
       </c>
@@ -6363,7 +8182,7 @@
       </c>
       <c r="D182" s="1"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>373</v>
       </c>
@@ -6375,7 +8194,7 @@
       </c>
       <c r="D183" s="1"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>373</v>
       </c>
@@ -6387,7 +8206,7 @@
       </c>
       <c r="D184" s="1"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>373</v>
       </c>
@@ -6399,7 +8218,7 @@
       </c>
       <c r="D185" s="1"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>373</v>
       </c>
@@ -6411,7 +8230,7 @@
       </c>
       <c r="D186" s="1"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>373</v>
       </c>
@@ -6423,7 +8242,7 @@
       </c>
       <c r="D187" s="1"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>374</v>
       </c>
@@ -6435,7 +8254,7 @@
       </c>
       <c r="D188" s="1"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>374</v>
       </c>
@@ -6447,7 +8266,7 @@
       </c>
       <c r="D189" s="1"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>374</v>
       </c>
@@ -6461,7 +8280,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>374</v>
       </c>
@@ -6473,7 +8292,7 @@
       </c>
       <c r="D191" s="1"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>374</v>
       </c>
@@ -6485,7 +8304,7 @@
       </c>
       <c r="D192" s="1"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>374</v>
       </c>
@@ -6497,7 +8316,7 @@
       </c>
       <c r="D193" s="1"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>374</v>
       </c>
@@ -6509,7 +8328,7 @@
       </c>
       <c r="D194" s="1"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>374</v>
       </c>
@@ -6521,7 +8340,7 @@
       </c>
       <c r="D195" s="1"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>374</v>
       </c>
@@ -6533,7 +8352,7 @@
       </c>
       <c r="D196" s="1"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>374</v>
       </c>
@@ -6545,7 +8364,7 @@
       </c>
       <c r="D197" s="1"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>374</v>
       </c>
@@ -6557,7 +8376,7 @@
       </c>
       <c r="D198" s="1"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>374</v>
       </c>
@@ -6569,7 +8388,7 @@
       </c>
       <c r="D199" s="1"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>374</v>
       </c>
@@ -6581,7 +8400,7 @@
       </c>
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>374</v>
       </c>
@@ -6593,7 +8412,7 @@
       </c>
       <c r="D201" s="1"/>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
         <v>374</v>
       </c>
@@ -6605,7 +8424,7 @@
       </c>
       <c r="D202" s="1"/>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
         <v>374</v>
       </c>
@@ -6617,7 +8436,7 @@
       </c>
       <c r="D203" s="1"/>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
         <v>374</v>
       </c>
@@ -6629,7 +8448,7 @@
       </c>
       <c r="D204" s="1"/>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
         <v>374</v>
       </c>
@@ -6641,7 +8460,7 @@
       </c>
       <c r="D205" s="1"/>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
         <v>374</v>
       </c>
@@ -6653,7 +8472,7 @@
       </c>
       <c r="D206" s="1"/>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
         <v>374</v>
       </c>
@@ -6665,7 +8484,7 @@
       </c>
       <c r="D207" s="1"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
         <v>374</v>
       </c>
@@ -6677,7 +8496,7 @@
       </c>
       <c r="D208" s="1"/>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
         <v>374</v>
       </c>
@@ -6689,7 +8508,7 @@
       </c>
       <c r="D209" s="1"/>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
         <v>374</v>
       </c>
@@ -6701,7 +8520,7 @@
       </c>
       <c r="D210" s="1"/>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
         <v>374</v>
       </c>
@@ -6713,7 +8532,7 @@
       </c>
       <c r="D211" s="1"/>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
         <v>374</v>
       </c>
@@ -6725,7 +8544,7 @@
       </c>
       <c r="D212" s="1"/>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
         <v>374</v>
       </c>
@@ -6737,7 +8556,7 @@
       </c>
       <c r="D213" s="1"/>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
         <v>374</v>
       </c>
@@ -6749,7 +8568,7 @@
       </c>
       <c r="D214" s="1"/>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
         <v>374</v>
       </c>
@@ -6761,7 +8580,7 @@
       </c>
       <c r="D215" s="1"/>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
         <v>374</v>
       </c>
@@ -6773,7 +8592,7 @@
       </c>
       <c r="D216" s="1"/>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
         <v>374</v>
       </c>
@@ -6785,7 +8604,7 @@
       </c>
       <c r="D217" s="1"/>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
         <v>374</v>
       </c>
@@ -6797,7 +8616,7 @@
       </c>
       <c r="D218" s="1"/>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
         <v>374</v>
       </c>
@@ -6809,7 +8628,7 @@
       </c>
       <c r="D219" s="1"/>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
         <v>374</v>
       </c>
@@ -6821,7 +8640,7 @@
       </c>
       <c r="D220" s="1"/>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
         <v>374</v>
       </c>
@@ -6833,7 +8652,7 @@
       </c>
       <c r="D221" s="1"/>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>374</v>
       </c>
@@ -6845,7 +8664,7 @@
       </c>
       <c r="D222" s="1"/>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
         <v>374</v>
       </c>
@@ -6857,7 +8676,7 @@
       </c>
       <c r="D223" s="1"/>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
         <v>374</v>
       </c>
@@ -6869,7 +8688,7 @@
       </c>
       <c r="D224" s="1"/>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
         <v>374</v>
       </c>
@@ -6881,7 +8700,7 @@
       </c>
       <c r="D225" s="1"/>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
         <v>374</v>
       </c>
@@ -6893,7 +8712,7 @@
       </c>
       <c r="D226" s="1"/>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
         <v>374</v>
       </c>
@@ -6905,7 +8724,7 @@
       </c>
       <c r="D227" s="1"/>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
         <v>374</v>
       </c>
@@ -6917,7 +8736,7 @@
       </c>
       <c r="D228" s="1"/>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
         <v>374</v>
       </c>
@@ -6929,7 +8748,7 @@
       </c>
       <c r="D229" s="1"/>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
         <v>374</v>
       </c>
@@ -6941,7 +8760,7 @@
       </c>
       <c r="D230" s="1"/>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
         <v>374</v>
       </c>
@@ -6953,7 +8772,7 @@
       </c>
       <c r="D231" s="1"/>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
         <v>374</v>
       </c>
@@ -6965,7 +8784,7 @@
       </c>
       <c r="D232" s="1"/>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
         <v>374</v>
       </c>
@@ -6977,7 +8796,7 @@
       </c>
       <c r="D233" s="1"/>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
         <v>374</v>
       </c>
@@ -6989,7 +8808,7 @@
       </c>
       <c r="D234" s="1"/>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
         <v>374</v>
       </c>
@@ -7001,7 +8820,7 @@
       </c>
       <c r="D235" s="1"/>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>481</v>
       </c>
@@ -7015,7 +8834,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>481</v>
       </c>
@@ -7027,7 +8846,7 @@
       </c>
       <c r="D237" s="1"/>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>481</v>
       </c>
@@ -7041,7 +8860,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>481</v>
       </c>
@@ -7053,7 +8872,7 @@
       </c>
       <c r="D239" s="1"/>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>481</v>
       </c>
@@ -7065,7 +8884,7 @@
       </c>
       <c r="D240" s="1"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>481</v>
       </c>
@@ -7077,7 +8896,7 @@
       </c>
       <c r="D241" s="1"/>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>481</v>
       </c>
@@ -7091,7 +8910,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
         <v>481</v>
       </c>
@@ -7103,7 +8922,7 @@
       </c>
       <c r="D243" s="1"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
         <v>481</v>
       </c>
@@ -7115,7 +8934,7 @@
       </c>
       <c r="D244" s="1"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>482</v>
       </c>
@@ -7127,7 +8946,7 @@
       </c>
       <c r="D245" s="1"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>482</v>
       </c>
@@ -7139,7 +8958,7 @@
       </c>
       <c r="D246" s="1"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>482</v>
       </c>
@@ -7151,7 +8970,7 @@
       </c>
       <c r="D247" s="1"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>482</v>
       </c>
@@ -7163,7 +8982,7 @@
       </c>
       <c r="D248" s="1"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>482</v>
       </c>
@@ -7175,7 +8994,7 @@
       </c>
       <c r="D249" s="1"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>482</v>
       </c>
@@ -7187,7 +9006,7 @@
       </c>
       <c r="D250" s="1"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
         <v>482</v>
       </c>
@@ -7199,7 +9018,7 @@
       </c>
       <c r="D251" s="1"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>482</v>
       </c>
@@ -7211,7 +9030,7 @@
       </c>
       <c r="D252" s="1"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>482</v>
       </c>
@@ -7223,7 +9042,7 @@
       </c>
       <c r="D253" s="1"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
         <v>482</v>
       </c>
@@ -7235,7 +9054,7 @@
       </c>
       <c r="D254" s="1"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
         <v>482</v>
       </c>
@@ -7247,7 +9066,7 @@
       </c>
       <c r="D255" s="1"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
         <v>482</v>
       </c>
@@ -7259,7 +9078,7 @@
       </c>
       <c r="D256" s="1"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
         <v>482</v>
       </c>
@@ -7271,7 +9090,7 @@
       </c>
       <c r="D257" s="1"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
         <v>482</v>
       </c>
@@ -7283,7 +9102,7 @@
       </c>
       <c r="D258" s="1"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>482</v>
       </c>
@@ -7295,7 +9114,7 @@
       </c>
       <c r="D259" s="1"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
         <v>482</v>
       </c>
@@ -7307,7 +9126,7 @@
       </c>
       <c r="D260" s="1"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
         <v>482</v>
       </c>
@@ -7319,7 +9138,7 @@
       </c>
       <c r="D261" s="1"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
         <v>482</v>
       </c>
@@ -7331,7 +9150,7 @@
       </c>
       <c r="D262" s="1"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
         <v>482</v>
       </c>
@@ -7343,7 +9162,7 @@
       </c>
       <c r="D263" s="1"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
         <v>519</v>
       </c>
@@ -7355,7 +9174,7 @@
       </c>
       <c r="D264" s="1"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>519</v>
       </c>
@@ -7367,7 +9186,7 @@
       </c>
       <c r="D265" s="1"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>519</v>
       </c>
@@ -7379,7 +9198,7 @@
       </c>
       <c r="D266" s="1"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>519</v>
       </c>
@@ -7391,7 +9210,7 @@
       </c>
       <c r="D267" s="1"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>519</v>
       </c>
@@ -7403,7 +9222,7 @@
       </c>
       <c r="D268" s="1"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>519</v>
       </c>
@@ -7415,7 +9234,7 @@
       </c>
       <c r="D269" s="1"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>519</v>
       </c>
@@ -7427,7 +9246,7 @@
       </c>
       <c r="D270" s="1"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>519</v>
       </c>
@@ -7439,7 +9258,7 @@
       </c>
       <c r="D271" s="1"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>519</v>
       </c>
@@ -7453,7 +9272,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
         <v>519</v>
       </c>
@@ -7465,7 +9284,7 @@
       </c>
       <c r="D273" s="1"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>519</v>
       </c>
@@ -7477,7 +9296,7 @@
       </c>
       <c r="D274" s="1"/>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>519</v>
       </c>
@@ -7491,7 +9310,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>519</v>
       </c>
@@ -7505,7 +9324,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>519</v>
       </c>
@@ -7517,7 +9336,7 @@
       </c>
       <c r="D277" s="1"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>519</v>
       </c>
@@ -7529,7 +9348,7 @@
       </c>
       <c r="D278" s="1"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
         <v>519</v>
       </c>
@@ -7541,7 +9360,7 @@
       </c>
       <c r="D279" s="1"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
         <v>519</v>
       </c>
@@ -7553,7 +9372,7 @@
       </c>
       <c r="D280" s="1"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>519</v>
       </c>
@@ -7565,7 +9384,7 @@
       </c>
       <c r="D281" s="1"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
         <v>519</v>
       </c>
@@ -7577,7 +9396,7 @@
       </c>
       <c r="D282" s="1"/>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>519</v>
       </c>
@@ -7589,7 +9408,7 @@
       </c>
       <c r="D283" s="1"/>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>519</v>
       </c>
@@ -7601,7 +9420,7 @@
       </c>
       <c r="D284" s="1"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
         <v>519</v>
       </c>
@@ -7613,7 +9432,7 @@
       </c>
       <c r="D285" s="1"/>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
         <v>519</v>
       </c>
@@ -7625,7 +9444,7 @@
       </c>
       <c r="D286" s="1"/>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
         <v>519</v>
       </c>
@@ -7637,7 +9456,7 @@
       </c>
       <c r="D287" s="1"/>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
         <v>519</v>
       </c>
@@ -7649,7 +9468,7 @@
       </c>
       <c r="D288" s="1"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
         <v>519</v>
       </c>
@@ -7661,7 +9480,7 @@
       </c>
       <c r="D289" s="1"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
         <v>519</v>
       </c>
@@ -7673,7 +9492,7 @@
       </c>
       <c r="D290" s="1"/>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
         <v>519</v>
       </c>
@@ -7685,7 +9504,7 @@
       </c>
       <c r="D291" s="1"/>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
         <v>519</v>
       </c>
@@ -7697,7 +9516,7 @@
       </c>
       <c r="D292" s="1"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>519</v>
       </c>
@@ -7709,7 +9528,7 @@
       </c>
       <c r="D293" s="1"/>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
         <v>519</v>
       </c>
@@ -7721,7 +9540,7 @@
       </c>
       <c r="D294" s="1"/>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
         <v>519</v>
       </c>
@@ -7733,7 +9552,7 @@
       </c>
       <c r="D295" s="1"/>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
         <v>519</v>
       </c>
@@ -7745,7 +9564,7 @@
       </c>
       <c r="D296" s="1"/>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>519</v>
       </c>
@@ -7757,7 +9576,7 @@
       </c>
       <c r="D297" s="1"/>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>519</v>
       </c>
@@ -7769,7 +9588,7 @@
       </c>
       <c r="D298" s="1"/>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>519</v>
       </c>
@@ -7781,7 +9600,7 @@
       </c>
       <c r="D299" s="1"/>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>519</v>
       </c>
@@ -7793,7 +9612,7 @@
       </c>
       <c r="D300" s="1"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
         <v>519</v>
       </c>
@@ -7805,7 +9624,7 @@
       </c>
       <c r="D301" s="1"/>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
         <v>519</v>
       </c>
@@ -7817,7 +9636,7 @@
       </c>
       <c r="D302" s="1"/>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>519</v>
       </c>
@@ -7829,7 +9648,7 @@
       </c>
       <c r="D303" s="1"/>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
         <v>519</v>
       </c>
@@ -7841,7 +9660,7 @@
       </c>
       <c r="D304" s="1"/>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
         <v>519</v>
       </c>
@@ -7853,7 +9672,7 @@
       </c>
       <c r="D305" s="1"/>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
         <v>519</v>
       </c>
@@ -7865,7 +9684,7 @@
       </c>
       <c r="D306" s="1"/>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
         <v>519</v>
       </c>
@@ -7877,7 +9696,7 @@
       </c>
       <c r="D307" s="1"/>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
         <v>519</v>
       </c>
@@ -7889,7 +9708,7 @@
       </c>
       <c r="D308" s="1"/>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
         <v>519</v>
       </c>
@@ -7901,7 +9720,7 @@
       </c>
       <c r="D309" s="1"/>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
         <v>519</v>
       </c>
@@ -7913,7 +9732,7 @@
       </c>
       <c r="D310" s="1"/>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
         <v>585</v>
       </c>
@@ -7925,7 +9744,7 @@
       </c>
       <c r="D311" s="1"/>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
         <v>585</v>
       </c>
@@ -7937,7 +9756,7 @@
       </c>
       <c r="D312" s="1"/>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
         <v>585</v>
       </c>
@@ -7951,7 +9770,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
         <v>585</v>
       </c>
@@ -7963,7 +9782,7 @@
       </c>
       <c r="D314" s="1"/>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>585</v>
       </c>
@@ -7975,7 +9794,7 @@
       </c>
       <c r="D315" s="1"/>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>585</v>
       </c>
@@ -7989,7 +9808,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>585</v>
       </c>
@@ -8001,7 +9820,7 @@
       </c>
       <c r="D317" s="1"/>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>585</v>
       </c>
@@ -8013,7 +9832,7 @@
       </c>
       <c r="D318" s="1"/>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>585</v>
       </c>
@@ -8025,7 +9844,7 @@
       </c>
       <c r="D319" s="1"/>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>585</v>
       </c>
@@ -8037,7 +9856,7 @@
       </c>
       <c r="D320" s="1"/>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>585</v>
       </c>
@@ -8049,7 +9868,7 @@
       </c>
       <c r="D321" s="1"/>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
         <v>585</v>
       </c>
@@ -8061,7 +9880,7 @@
       </c>
       <c r="D322" s="1"/>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
         <v>585</v>
       </c>
@@ -8073,7 +9892,7 @@
       </c>
       <c r="D323" s="1"/>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
         <v>585</v>
       </c>
@@ -8085,7 +9904,7 @@
       </c>
       <c r="D324" s="1"/>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
         <v>585</v>
       </c>
@@ -8097,7 +9916,7 @@
       </c>
       <c r="D325" s="1"/>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
         <v>585</v>
       </c>
@@ -8109,7 +9928,7 @@
       </c>
       <c r="D326" s="1"/>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
         <v>585</v>
       </c>
@@ -8121,7 +9940,7 @@
       </c>
       <c r="D327" s="1"/>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
         <v>585</v>
       </c>
@@ -8133,7 +9952,7 @@
       </c>
       <c r="D328" s="1"/>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
         <v>585</v>
       </c>
@@ -8145,7 +9964,7 @@
       </c>
       <c r="D329" s="1"/>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
         <v>585</v>
       </c>
@@ -8157,7 +9976,7 @@
       </c>
       <c r="D330" s="1"/>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
         <v>585</v>
       </c>
@@ -8169,7 +9988,7 @@
       </c>
       <c r="D331" s="1"/>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>585</v>
       </c>
@@ -8181,7 +10000,7 @@
       </c>
       <c r="D332" s="1"/>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
         <v>585</v>
       </c>
@@ -8193,7 +10012,7 @@
       </c>
       <c r="D333" s="1"/>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
         <v>585</v>
       </c>
@@ -8205,7 +10024,7 @@
       </c>
       <c r="D334" s="1"/>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
         <v>585</v>
       </c>
@@ -8219,7 +10038,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
         <v>585</v>
       </c>
@@ -8231,7 +10050,7 @@
       </c>
       <c r="D336" s="1"/>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
         <v>585</v>
       </c>
@@ -8243,7 +10062,7 @@
       </c>
       <c r="D337" s="1"/>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
         <v>585</v>
       </c>
@@ -8255,7 +10074,7 @@
       </c>
       <c r="D338" s="1"/>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
         <v>585</v>
       </c>
@@ -8267,7 +10086,7 @@
       </c>
       <c r="D339" s="1"/>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
         <v>585</v>
       </c>
@@ -8279,7 +10098,7 @@
       </c>
       <c r="D340" s="1"/>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
         <v>585</v>
       </c>
@@ -8291,7 +10110,7 @@
       </c>
       <c r="D341" s="1"/>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
         <v>585</v>
       </c>
@@ -8303,7 +10122,7 @@
       </c>
       <c r="D342" s="1"/>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
         <v>585</v>
       </c>
@@ -8315,7 +10134,7 @@
       </c>
       <c r="D343" s="1"/>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
         <v>585</v>
       </c>
@@ -8329,7 +10148,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
         <v>585</v>
       </c>
@@ -8341,7 +10160,7 @@
       </c>
       <c r="D345" s="1"/>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
         <v>585</v>
       </c>
@@ -8353,7 +10172,7 @@
       </c>
       <c r="D346" s="1"/>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
         <v>585</v>
       </c>
@@ -8367,7 +10186,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
         <v>585</v>
       </c>
@@ -8379,7 +10198,7 @@
       </c>
       <c r="D348" s="1"/>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
         <v>585</v>
       </c>
@@ -8393,7 +10212,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
         <v>585</v>
       </c>
@@ -8405,7 +10224,7 @@
       </c>
       <c r="D350" s="1"/>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
         <v>585</v>
       </c>
@@ -8417,7 +10236,7 @@
       </c>
       <c r="D351" s="1"/>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
         <v>585</v>
       </c>
@@ -8429,7 +10248,7 @@
       </c>
       <c r="D352" s="1"/>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
         <v>585</v>
       </c>
@@ -8441,7 +10260,7 @@
       </c>
       <c r="D353" s="1"/>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
         <v>585</v>
       </c>
@@ -8455,7 +10274,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
         <v>585</v>
       </c>
@@ -8467,7 +10286,7 @@
       </c>
       <c r="D355" s="1"/>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
         <v>585</v>
       </c>
@@ -8479,7 +10298,7 @@
       </c>
       <c r="D356" s="1"/>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
         <v>585</v>
       </c>
@@ -8491,7 +10310,7 @@
       </c>
       <c r="D357" s="1"/>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
         <v>585</v>
       </c>
@@ -8503,7 +10322,7 @@
       </c>
       <c r="D358" s="1"/>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
         <v>585</v>
       </c>
@@ -8515,7 +10334,7 @@
       </c>
       <c r="D359" s="1"/>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
         <v>585</v>
       </c>
@@ -8527,7 +10346,7 @@
       </c>
       <c r="D360" s="1"/>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
         <v>585</v>
       </c>
@@ -8539,7 +10358,7 @@
       </c>
       <c r="D361" s="1"/>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
         <v>585</v>
       </c>
@@ -8551,7 +10370,7 @@
       </c>
       <c r="D362" s="1"/>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
         <v>585</v>
       </c>
@@ -8563,7 +10382,7 @@
       </c>
       <c r="D363" s="1"/>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
         <v>585</v>
       </c>
@@ -8577,7 +10396,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="2" t="s">
         <v>585</v>
       </c>
@@ -8589,7 +10408,7 @@
       </c>
       <c r="D365" s="1"/>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
         <v>585</v>
       </c>
@@ -8601,7 +10420,7 @@
       </c>
       <c r="D366" s="1"/>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
         <v>585</v>
       </c>
@@ -8613,7 +10432,7 @@
       </c>
       <c r="D367" s="1"/>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
         <v>585</v>
       </c>
@@ -8625,7 +10444,7 @@
       </c>
       <c r="D368" s="1"/>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
         <v>585</v>
       </c>
@@ -8637,7 +10456,7 @@
       </c>
       <c r="D369" s="1"/>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
         <v>585</v>
       </c>
@@ -8649,7 +10468,7 @@
       </c>
       <c r="D370" s="1"/>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
         <v>585</v>
       </c>
@@ -8661,7 +10480,7 @@
       </c>
       <c r="D371" s="1"/>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
         <v>585</v>
       </c>
@@ -8673,7 +10492,7 @@
       </c>
       <c r="D372" s="1"/>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
         <v>585</v>
       </c>
@@ -8685,7 +10504,7 @@
       </c>
       <c r="D373" s="1"/>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
         <v>585</v>
       </c>
@@ -8697,7 +10516,7 @@
       </c>
       <c r="D374" s="1"/>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
         <v>585</v>
       </c>
@@ -8709,7 +10528,7 @@
       </c>
       <c r="D375" s="1"/>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
         <v>585</v>
       </c>
@@ -8721,7 +10540,7 @@
       </c>
       <c r="D376" s="1"/>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
         <v>585</v>
       </c>
@@ -8733,7 +10552,7 @@
       </c>
       <c r="D377" s="1"/>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
         <v>585</v>
       </c>
@@ -8745,7 +10564,7 @@
       </c>
       <c r="D378" s="1"/>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
         <v>585</v>
       </c>
@@ -8757,7 +10576,7 @@
       </c>
       <c r="D379" s="1"/>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
         <v>585</v>
       </c>
@@ -8769,7 +10588,7 @@
       </c>
       <c r="D380" s="1"/>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
         <v>585</v>
       </c>
@@ -8781,7 +10600,7 @@
       </c>
       <c r="D381" s="1"/>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
         <v>585</v>
       </c>
@@ -8795,7 +10614,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
         <v>585</v>
       </c>
@@ -8807,7 +10626,7 @@
       </c>
       <c r="D383" s="1"/>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="2" t="s">
         <v>585</v>
       </c>
@@ -8819,7 +10638,7 @@
       </c>
       <c r="D384" s="1"/>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
         <v>585</v>
       </c>
@@ -8831,7 +10650,7 @@
       </c>
       <c r="D385" s="1"/>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
         <v>585</v>
       </c>
@@ -8843,7 +10662,7 @@
       </c>
       <c r="D386" s="1"/>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
         <v>585</v>
       </c>
@@ -8855,7 +10674,7 @@
       </c>
       <c r="D387" s="1"/>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
         <v>585</v>
       </c>
@@ -8867,7 +10686,7 @@
       </c>
       <c r="D388" s="1"/>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>585</v>
       </c>
@@ -8879,7 +10698,7 @@
       </c>
       <c r="D389" s="1"/>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
         <v>585</v>
       </c>
@@ -8891,7 +10710,7 @@
       </c>
       <c r="D390" s="1"/>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
         <v>585</v>
       </c>
@@ -8903,7 +10722,7 @@
       </c>
       <c r="D391" s="1"/>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
         <v>585</v>
       </c>
@@ -8915,7 +10734,7 @@
       </c>
       <c r="D392" s="1"/>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
         <v>585</v>
       </c>
@@ -8927,7 +10746,7 @@
       </c>
       <c r="D393" s="1"/>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
         <v>585</v>
       </c>
@@ -8939,7 +10758,7 @@
       </c>
       <c r="D394" s="1"/>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
         <v>585</v>
       </c>
@@ -8951,7 +10770,7 @@
       </c>
       <c r="D395" s="1"/>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
         <v>585</v>
       </c>
@@ -8963,7 +10782,7 @@
       </c>
       <c r="D396" s="1"/>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
         <v>585</v>
       </c>
@@ -8975,7 +10794,7 @@
       </c>
       <c r="D397" s="1"/>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
         <v>585</v>
       </c>
@@ -8987,7 +10806,7 @@
       </c>
       <c r="D398" s="1"/>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
         <v>585</v>
       </c>
@@ -8999,7 +10818,7 @@
       </c>
       <c r="D399" s="1"/>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
         <v>585</v>
       </c>
@@ -9011,7 +10830,7 @@
       </c>
       <c r="D400" s="1"/>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
         <v>585</v>
       </c>
@@ -9023,7 +10842,7 @@
       </c>
       <c r="D401" s="1"/>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
         <v>585</v>
       </c>
@@ -9035,7 +10854,7 @@
       </c>
       <c r="D402" s="1"/>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
         <v>585</v>
       </c>
@@ -9047,7 +10866,7 @@
       </c>
       <c r="D403" s="1"/>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
         <v>585</v>
       </c>
@@ -9059,7 +10878,7 @@
       </c>
       <c r="D404" s="1"/>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
         <v>585</v>
       </c>
@@ -9071,7 +10890,7 @@
       </c>
       <c r="D405" s="1"/>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>585</v>
       </c>
@@ -9083,7 +10902,7 @@
       </c>
       <c r="D406" s="1"/>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
         <v>585</v>
       </c>
@@ -9095,7 +10914,7 @@
       </c>
       <c r="D407" s="1"/>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
         <v>585</v>
       </c>
@@ -9107,7 +10926,7 @@
       </c>
       <c r="D408" s="1"/>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
         <v>585</v>
       </c>
@@ -9119,7 +10938,7 @@
       </c>
       <c r="D409" s="1"/>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
         <v>585</v>
       </c>
@@ -9131,7 +10950,7 @@
       </c>
       <c r="D410" s="1"/>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
         <v>585</v>
       </c>
@@ -9143,7 +10962,7 @@
       </c>
       <c r="D411" s="1"/>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
         <v>585</v>
       </c>
@@ -9155,7 +10974,7 @@
       </c>
       <c r="D412" s="1"/>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
         <v>585</v>
       </c>
@@ -9167,7 +10986,7 @@
       </c>
       <c r="D413" s="1"/>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
         <v>585</v>
       </c>
@@ -9179,7 +10998,7 @@
       </c>
       <c r="D414" s="1"/>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
         <v>585</v>
       </c>
@@ -9191,7 +11010,7 @@
       </c>
       <c r="D415" s="1"/>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
         <v>585</v>
       </c>
@@ -9203,7 +11022,7 @@
       </c>
       <c r="D416" s="1"/>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
         <v>585</v>
       </c>
@@ -9215,7 +11034,7 @@
       </c>
       <c r="D417" s="1"/>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
         <v>585</v>
       </c>
@@ -9227,7 +11046,7 @@
       </c>
       <c r="D418" s="1"/>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
         <v>585</v>
       </c>
@@ -9239,7 +11058,7 @@
       </c>
       <c r="D419" s="1"/>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
         <v>585</v>
       </c>
@@ -9253,7 +11072,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
         <v>585</v>
       </c>
@@ -9265,7 +11084,7 @@
       </c>
       <c r="D421" s="1"/>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
         <v>585</v>
       </c>
@@ -9277,7 +11096,7 @@
       </c>
       <c r="D422" s="1"/>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
         <v>585</v>
       </c>
@@ -9289,7 +11108,7 @@
       </c>
       <c r="D423" s="1"/>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
         <v>585</v>
       </c>
@@ -9301,7 +11120,7 @@
       </c>
       <c r="D424" s="1"/>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
         <v>585</v>
       </c>
@@ -9313,7 +11132,7 @@
       </c>
       <c r="D425" s="1"/>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
         <v>585</v>
       </c>
@@ -9325,7 +11144,7 @@
       </c>
       <c r="D426" s="1"/>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
         <v>585</v>
       </c>
@@ -9337,7 +11156,7 @@
       </c>
       <c r="D427" s="1"/>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
         <v>585</v>
       </c>
@@ -9349,7 +11168,7 @@
       </c>
       <c r="D428" s="1"/>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
         <v>585</v>
       </c>
@@ -9361,7 +11180,7 @@
       </c>
       <c r="D429" s="1"/>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
         <v>585</v>
       </c>
@@ -9373,7 +11192,7 @@
       </c>
       <c r="D430" s="1"/>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
         <v>585</v>
       </c>
@@ -9385,7 +11204,7 @@
       </c>
       <c r="D431" s="1"/>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="2" t="s">
         <v>585</v>
       </c>
@@ -9397,7 +11216,7 @@
       </c>
       <c r="D432" s="1"/>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="2" t="s">
         <v>585</v>
       </c>
@@ -9409,7 +11228,7 @@
       </c>
       <c r="D433" s="1"/>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="2" t="s">
         <v>585</v>
       </c>
@@ -9421,7 +11240,7 @@
       </c>
       <c r="D434" s="1"/>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="2" t="s">
         <v>585</v>
       </c>
@@ -9433,7 +11252,7 @@
       </c>
       <c r="D435" s="1"/>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="2" t="s">
         <v>585</v>
       </c>
@@ -9445,7 +11264,7 @@
       </c>
       <c r="D436" s="1"/>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="2" t="s">
         <v>585</v>
       </c>
@@ -9459,7 +11278,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="2" t="s">
         <v>585</v>
       </c>
@@ -9471,7 +11290,7 @@
       </c>
       <c r="D438" s="1"/>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="2" t="s">
         <v>585</v>
       </c>
@@ -9483,7 +11302,7 @@
       </c>
       <c r="D439" s="1"/>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="2" t="s">
         <v>585</v>
       </c>
@@ -9495,7 +11314,7 @@
       </c>
       <c r="D440" s="1"/>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="2" t="s">
         <v>585</v>
       </c>
@@ -9507,7 +11326,7 @@
       </c>
       <c r="D441" s="1"/>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="2" t="s">
         <v>585</v>
       </c>
@@ -9519,7 +11338,7 @@
       </c>
       <c r="D442" s="1"/>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="2" t="s">
         <v>585</v>
       </c>
@@ -9531,7 +11350,7 @@
       </c>
       <c r="D443" s="1"/>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="2" t="s">
         <v>585</v>
       </c>
@@ -9545,7 +11364,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="2" t="s">
         <v>585</v>
       </c>
@@ -9557,7 +11376,7 @@
       </c>
       <c r="D445" s="1"/>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="2" t="s">
         <v>585</v>
       </c>
@@ -9569,7 +11388,7 @@
       </c>
       <c r="D446" s="1"/>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="2" t="s">
         <v>585</v>
       </c>
@@ -9581,7 +11400,7 @@
       </c>
       <c r="D447" s="1"/>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="2" t="s">
         <v>585</v>
       </c>
@@ -9593,7 +11412,7 @@
       </c>
       <c r="D448" s="1"/>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="2" t="s">
         <v>585</v>
       </c>
@@ -9605,7 +11424,7 @@
       </c>
       <c r="D449" s="1"/>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="2" t="s">
         <v>585</v>
       </c>
@@ -9617,7 +11436,7 @@
       </c>
       <c r="D450" s="1"/>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="2" t="s">
         <v>585</v>
       </c>
@@ -9629,7 +11448,7 @@
       </c>
       <c r="D451" s="1"/>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>585</v>
       </c>
@@ -9643,7 +11462,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="2" t="s">
         <v>585</v>
       </c>
@@ -9655,7 +11474,7 @@
       </c>
       <c r="D453" s="1"/>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="2" t="s">
         <v>585</v>
       </c>
@@ -9667,7 +11486,7 @@
       </c>
       <c r="D454" s="1"/>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="2" t="s">
         <v>585</v>
       </c>
@@ -9679,7 +11498,7 @@
       </c>
       <c r="D455" s="1"/>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="2" t="s">
         <v>585</v>
       </c>
@@ -9691,7 +11510,7 @@
       </c>
       <c r="D456" s="1"/>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="2" t="s">
         <v>585</v>
       </c>
@@ -9703,7 +11522,7 @@
       </c>
       <c r="D457" s="1"/>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="2" t="s">
         <v>585</v>
       </c>
@@ -9715,7 +11534,7 @@
       </c>
       <c r="D458" s="1"/>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="2" t="s">
         <v>585</v>
       </c>
@@ -9727,7 +11546,7 @@
       </c>
       <c r="D459" s="1"/>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="2" t="s">
         <v>585</v>
       </c>
@@ -9739,7 +11558,7 @@
       </c>
       <c r="D460" s="1"/>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="2" t="s">
         <v>585</v>
       </c>
@@ -9753,7 +11572,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="2" t="s">
         <v>585</v>
       </c>
@@ -9765,7 +11584,7 @@
       </c>
       <c r="D462" s="1"/>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="2" t="s">
         <v>585</v>
       </c>
@@ -9777,7 +11596,7 @@
       </c>
       <c r="D463" s="1"/>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="2" t="s">
         <v>585</v>
       </c>
@@ -9789,7 +11608,7 @@
       </c>
       <c r="D464" s="1"/>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="2" t="s">
         <v>585</v>
       </c>
@@ -9803,7 +11622,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="2" t="s">
         <v>585</v>
       </c>
@@ -9817,7 +11636,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="2" t="s">
         <v>585</v>
       </c>
@@ -9829,7 +11648,7 @@
       </c>
       <c r="D467" s="1"/>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
         <v>585</v>
       </c>
@@ -9841,7 +11660,7 @@
       </c>
       <c r="D468" s="1"/>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="2" t="s">
         <v>585</v>
       </c>
@@ -9853,7 +11672,7 @@
       </c>
       <c r="D469" s="1"/>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="2" t="s">
         <v>585</v>
       </c>
@@ -9865,7 +11684,7 @@
       </c>
       <c r="D470" s="1"/>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="2" t="s">
         <v>585</v>
       </c>
@@ -9879,7 +11698,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="2" t="s">
         <v>585</v>
       </c>
@@ -9891,7 +11710,7 @@
       </c>
       <c r="D472" s="1"/>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="2" t="s">
         <v>585</v>
       </c>
@@ -9903,7 +11722,7 @@
       </c>
       <c r="D473" s="1"/>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="2" t="s">
         <v>585</v>
       </c>
@@ -9915,7 +11734,7 @@
       </c>
       <c r="D474" s="1"/>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="2" t="s">
         <v>585</v>
       </c>
@@ -9927,7 +11746,7 @@
       </c>
       <c r="D475" s="1"/>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="2" t="s">
         <v>585</v>
       </c>
@@ -9939,7 +11758,7 @@
       </c>
       <c r="D476" s="1"/>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="2" t="s">
         <v>585</v>
       </c>
@@ -9951,7 +11770,7 @@
       </c>
       <c r="D477" s="1"/>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="2" t="s">
         <v>585</v>
       </c>
@@ -9963,7 +11782,7 @@
       </c>
       <c r="D478" s="1"/>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="2" t="s">
         <v>585</v>
       </c>
@@ -9975,7 +11794,7 @@
       </c>
       <c r="D479" s="1"/>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="2" t="s">
         <v>585</v>
       </c>
@@ -9989,7 +11808,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="2" t="s">
         <v>585</v>
       </c>
@@ -10003,7 +11822,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="2" t="s">
         <v>924</v>
       </c>
@@ -10017,7 +11836,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="2" t="s">
         <v>924</v>
       </c>
@@ -10029,7 +11848,7 @@
       </c>
       <c r="D483" s="1"/>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="2" t="s">
         <v>924</v>
       </c>
@@ -10041,7 +11860,7 @@
       </c>
       <c r="D484" s="1"/>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="2" t="s">
         <v>924</v>
       </c>
@@ -10053,7 +11872,7 @@
       </c>
       <c r="D485" s="1"/>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="2" t="s">
         <v>924</v>
       </c>
@@ -10065,7 +11884,7 @@
       </c>
       <c r="D486" s="1"/>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="2" t="s">
         <v>924</v>
       </c>
@@ -10077,7 +11896,7 @@
       </c>
       <c r="D487" s="1"/>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="2" t="s">
         <v>924</v>
       </c>
@@ -10089,7 +11908,7 @@
       </c>
       <c r="D488" s="1"/>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="2" t="s">
         <v>924</v>
       </c>
@@ -10101,7 +11920,7 @@
       </c>
       <c r="D489" s="1"/>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="2" t="s">
         <v>924</v>
       </c>
@@ -10113,7 +11932,7 @@
       </c>
       <c r="D490" s="1"/>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="2" t="s">
         <v>924</v>
       </c>
@@ -10125,7 +11944,7 @@
       </c>
       <c r="D491" s="1"/>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="2" t="s">
         <v>924</v>
       </c>
@@ -10137,7 +11956,7 @@
       </c>
       <c r="D492" s="1"/>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="2" t="s">
         <v>924</v>
       </c>
@@ -10149,7 +11968,7 @@
       </c>
       <c r="D493" s="1"/>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="2" t="s">
         <v>924</v>
       </c>
@@ -10161,7 +11980,7 @@
       </c>
       <c r="D494" s="1"/>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="2" t="s">
         <v>924</v>
       </c>
@@ -10173,7 +11992,7 @@
       </c>
       <c r="D495" s="1"/>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="2" t="s">
         <v>924</v>
       </c>
@@ -10185,7 +12004,7 @@
       </c>
       <c r="D496" s="1"/>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="2" t="s">
         <v>924</v>
       </c>
@@ -10197,7 +12016,7 @@
       </c>
       <c r="D497" s="1"/>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="2" t="s">
         <v>924</v>
       </c>
@@ -10209,7 +12028,7 @@
       </c>
       <c r="D498" s="1"/>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="2" t="s">
         <v>924</v>
       </c>
@@ -10221,7 +12040,7 @@
       </c>
       <c r="D499" s="1"/>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="2" t="s">
         <v>924</v>
       </c>
@@ -10233,7 +12052,7 @@
       </c>
       <c r="D500" s="1"/>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="2" t="s">
         <v>924</v>
       </c>
@@ -10247,7 +12066,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="2" t="s">
         <v>924</v>
       </c>
@@ -10259,7 +12078,7 @@
       </c>
       <c r="D502" s="1"/>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="2" t="s">
         <v>924</v>
       </c>
@@ -10273,7 +12092,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="2" t="s">
         <v>924</v>
       </c>
@@ -10285,7 +12104,7 @@
       </c>
       <c r="D504" s="1"/>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="2" t="s">
         <v>971</v>
       </c>
@@ -10297,7 +12116,7 @@
       </c>
       <c r="D505" s="1"/>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="2" t="s">
         <v>971</v>
       </c>
@@ -10309,7 +12128,7 @@
       </c>
       <c r="D506" s="1"/>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="2" t="s">
         <v>971</v>
       </c>
@@ -10321,7 +12140,7 @@
       </c>
       <c r="D507" s="1"/>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="2" t="s">
         <v>971</v>
       </c>
@@ -10333,7 +12152,7 @@
       </c>
       <c r="D508" s="1"/>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="2" t="s">
         <v>971</v>
       </c>
@@ -10345,7 +12164,7 @@
       </c>
       <c r="D509" s="1"/>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="2" t="s">
         <v>971</v>
       </c>
@@ -10357,7 +12176,7 @@
       </c>
       <c r="D510" s="1"/>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="2" t="s">
         <v>971</v>
       </c>
@@ -10369,7 +12188,7 @@
       </c>
       <c r="D511" s="1"/>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="2" t="s">
         <v>971</v>
       </c>
@@ -10381,7 +12200,7 @@
       </c>
       <c r="D512" s="1"/>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="2" t="s">
         <v>971</v>
       </c>
@@ -10393,7 +12212,7 @@
       </c>
       <c r="D513" s="1"/>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="2" t="s">
         <v>971</v>
       </c>
@@ -10405,7 +12224,7 @@
       </c>
       <c r="D514" s="1"/>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="2" t="s">
         <v>971</v>
       </c>
@@ -10417,7 +12236,7 @@
       </c>
       <c r="D515" s="1"/>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="2" t="s">
         <v>971</v>
       </c>
@@ -10429,7 +12248,7 @@
       </c>
       <c r="D516" s="1"/>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="2" t="s">
         <v>971</v>
       </c>
@@ -10441,7 +12260,7 @@
       </c>
       <c r="D517" s="1"/>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="2" t="s">
         <v>971</v>
       </c>
@@ -10453,7 +12272,7 @@
       </c>
       <c r="D518" s="1"/>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="2" t="s">
         <v>971</v>
       </c>
@@ -10465,7 +12284,7 @@
       </c>
       <c r="D519" s="1"/>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="2" t="s">
         <v>971</v>
       </c>
@@ -10477,7 +12296,7 @@
       </c>
       <c r="D520" s="1"/>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="2" t="s">
         <v>971</v>
       </c>
@@ -10489,7 +12308,7 @@
       </c>
       <c r="D521" s="1"/>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="2" t="s">
         <v>971</v>
       </c>
@@ -10501,7 +12320,7 @@
       </c>
       <c r="D522" s="1"/>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="2" t="s">
         <v>971</v>
       </c>
@@ -10513,7 +12332,7 @@
       </c>
       <c r="D523" s="1"/>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="2" t="s">
         <v>971</v>
       </c>
@@ -10525,7 +12344,7 @@
       </c>
       <c r="D524" s="1"/>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="2" t="s">
         <v>971</v>
       </c>
@@ -10537,7 +12356,7 @@
       </c>
       <c r="D525" s="1"/>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="2" t="s">
         <v>971</v>
       </c>
@@ -10549,7 +12368,7 @@
       </c>
       <c r="D526" s="1"/>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="2" t="s">
         <v>971</v>
       </c>
@@ -10561,7 +12380,7 @@
       </c>
       <c r="D527" s="1"/>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="2" t="s">
         <v>971</v>
       </c>
@@ -10573,7 +12392,7 @@
       </c>
       <c r="D528" s="1"/>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="2" t="s">
         <v>971</v>
       </c>
@@ -10585,7 +12404,7 @@
       </c>
       <c r="D529" s="1"/>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="2" t="s">
         <v>971</v>
       </c>
@@ -10597,7 +12416,7 @@
       </c>
       <c r="D530" s="1"/>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="2" t="s">
         <v>971</v>
       </c>
@@ -10609,7 +12428,7 @@
       </c>
       <c r="D531" s="1"/>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="2" t="s">
         <v>971</v>
       </c>
@@ -10621,7 +12440,7 @@
       </c>
       <c r="D532" s="1"/>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="2" t="s">
         <v>971</v>
       </c>
@@ -10633,7 +12452,7 @@
       </c>
       <c r="D533" s="1"/>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="2" t="s">
         <v>971</v>
       </c>
@@ -10645,7 +12464,7 @@
       </c>
       <c r="D534" s="1"/>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="2" t="s">
         <v>971</v>
       </c>
@@ -10657,7 +12476,7 @@
       </c>
       <c r="D535" s="1"/>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="2" t="s">
         <v>971</v>
       </c>
@@ -10669,7 +12488,7 @@
       </c>
       <c r="D536" s="1"/>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
         <v>971</v>
       </c>
@@ -10681,7 +12500,7 @@
       </c>
       <c r="D537" s="1"/>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="2" t="s">
         <v>971</v>
       </c>
@@ -10693,7 +12512,7 @@
       </c>
       <c r="D538" s="1"/>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="2" t="s">
         <v>971</v>
       </c>
@@ -10705,7 +12524,7 @@
       </c>
       <c r="D539" s="1"/>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="2" t="s">
         <v>971</v>
       </c>
@@ -10717,7 +12536,7 @@
       </c>
       <c r="D540" s="1"/>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="2" t="s">
         <v>971</v>
       </c>
@@ -10729,7 +12548,7 @@
       </c>
       <c r="D541" s="1"/>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="2" t="s">
         <v>971</v>
       </c>
@@ -10741,7 +12560,7 @@
       </c>
       <c r="D542" s="1"/>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A543" s="2" t="s">
         <v>971</v>
       </c>
@@ -10753,7 +12572,7 @@
       </c>
       <c r="D543" s="1"/>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A544" s="2" t="s">
         <v>971</v>
       </c>
@@ -10765,7 +12584,7 @@
       </c>
       <c r="D544" s="1"/>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A545" s="2" t="s">
         <v>971</v>
       </c>
@@ -10777,7 +12596,7 @@
       </c>
       <c r="D545" s="1"/>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A546" s="2" t="s">
         <v>971</v>
       </c>
@@ -10789,7 +12608,7 @@
       </c>
       <c r="D546" s="1"/>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A547" s="2" t="s">
         <v>971</v>
       </c>
@@ -10801,7 +12620,7 @@
       </c>
       <c r="D547" s="1"/>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A548" s="2" t="s">
         <v>971</v>
       </c>
@@ -10813,7 +12632,7 @@
       </c>
       <c r="D548" s="1"/>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A549" s="2" t="s">
         <v>971</v>
       </c>
@@ -10825,7 +12644,7 @@
       </c>
       <c r="D549" s="1"/>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A550" s="2" t="s">
         <v>971</v>
       </c>
@@ -10837,7 +12656,7 @@
       </c>
       <c r="D550" s="1"/>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A551" s="2" t="s">
         <v>971</v>
       </c>
@@ -10849,7 +12668,7 @@
       </c>
       <c r="D551" s="1"/>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A552" s="2" t="s">
         <v>971</v>
       </c>
@@ -10861,7 +12680,7 @@
       </c>
       <c r="D552" s="1"/>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A553" s="2" t="s">
         <v>971</v>
       </c>
@@ -10873,7 +12692,7 @@
       </c>
       <c r="D553" s="1"/>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A554" s="2" t="s">
         <v>971</v>
       </c>
@@ -10885,7 +12704,7 @@
       </c>
       <c r="D554" s="1"/>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A555" s="2" t="s">
         <v>971</v>
       </c>
@@ -10897,7 +12716,7 @@
       </c>
       <c r="D555" s="1"/>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A556" s="2" t="s">
         <v>971</v>
       </c>
@@ -10909,7 +12728,7 @@
       </c>
       <c r="D556" s="1"/>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A557" s="2" t="s">
         <v>971</v>
       </c>
@@ -10921,7 +12740,7 @@
       </c>
       <c r="D557" s="1"/>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A558" s="2" t="s">
         <v>971</v>
       </c>
@@ -10933,7 +12752,7 @@
       </c>
       <c r="D558" s="1"/>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A559" s="2" t="s">
         <v>971</v>
       </c>
@@ -10945,7 +12764,7 @@
       </c>
       <c r="D559" s="1"/>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A560" s="2" t="s">
         <v>971</v>
       </c>
@@ -10957,7 +12776,7 @@
       </c>
       <c r="D560" s="1"/>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A561" s="2" t="s">
         <v>971</v>
       </c>
@@ -10969,7 +12788,7 @@
       </c>
       <c r="D561" s="1"/>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A562" s="2" t="s">
         <v>971</v>
       </c>
@@ -10981,7 +12800,7 @@
       </c>
       <c r="D562" s="1"/>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A563" s="2" t="s">
         <v>971</v>
       </c>
@@ -10993,7 +12812,7 @@
       </c>
       <c r="D563" s="1"/>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A564" s="2" t="s">
         <v>971</v>
       </c>
@@ -11005,7 +12824,7 @@
       </c>
       <c r="D564" s="1"/>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A565" s="2" t="s">
         <v>971</v>
       </c>
@@ -11017,7 +12836,7 @@
       </c>
       <c r="D565" s="1"/>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A566" s="2" t="s">
         <v>971</v>
       </c>
@@ -11029,7 +12848,7 @@
       </c>
       <c r="D566" s="1"/>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A567" s="2" t="s">
         <v>1086</v>
       </c>
@@ -11041,7 +12860,7 @@
       </c>
       <c r="D567" s="1"/>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A568" s="2" t="s">
         <v>1086</v>
       </c>
@@ -11053,7 +12872,7 @@
       </c>
       <c r="D568" s="1"/>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A569" s="2" t="s">
         <v>1086</v>
       </c>
@@ -11065,7 +12884,7 @@
       </c>
       <c r="D569" s="1"/>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A570" s="2" t="s">
         <v>1086</v>
       </c>
@@ -11077,7 +12896,7 @@
       </c>
       <c r="D570" s="1"/>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A571" s="2" t="s">
         <v>1086</v>
       </c>
@@ -11089,7 +12908,7 @@
       </c>
       <c r="D571" s="1"/>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A572" s="2" t="s">
         <v>1086</v>
       </c>
@@ -11101,7 +12920,7 @@
       </c>
       <c r="D572" s="1"/>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A573" s="2" t="s">
         <v>1086</v>
       </c>
@@ -11113,7 +12932,7 @@
       </c>
       <c r="D573" s="1"/>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A574" s="2" t="s">
         <v>1086</v>
       </c>
@@ -11125,7 +12944,7 @@
       </c>
       <c r="D574" s="1"/>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A575" s="2" t="s">
         <v>1086</v>
       </c>
@@ -11137,7 +12956,7 @@
       </c>
       <c r="D575" s="1"/>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A576" s="2" t="s">
         <v>1086</v>
       </c>
@@ -11149,7 +12968,7 @@
       </c>
       <c r="D576" s="1"/>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A577" s="2" t="s">
         <v>1086</v>
       </c>
@@ -11161,7 +12980,7 @@
       </c>
       <c r="D577" s="1"/>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A578" s="2" t="s">
         <v>1086</v>
       </c>
@@ -11173,7 +12992,7 @@
       </c>
       <c r="D578" s="1"/>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A579" s="2" t="s">
         <v>1086</v>
       </c>
@@ -11185,7 +13004,7 @@
       </c>
       <c r="D579" s="1"/>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A580" s="2" t="s">
         <v>1086</v>
       </c>
@@ -11197,7 +13016,7 @@
       </c>
       <c r="D580" s="1"/>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A581" s="2" t="s">
         <v>1086</v>
       </c>
@@ -11209,7 +13028,7 @@
       </c>
       <c r="D581" s="1"/>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A582" s="2" t="s">
         <v>1086</v>
       </c>
@@ -11221,7 +13040,7 @@
       </c>
       <c r="D582" s="1"/>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A583" s="2" t="s">
         <v>1119</v>
       </c>
@@ -11235,7 +13054,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A584" s="2" t="s">
         <v>1119</v>
       </c>
@@ -11249,7 +13068,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A585" s="2" t="s">
         <v>1119</v>
       </c>
@@ -11263,7 +13082,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A586" s="2" t="s">
         <v>1119</v>
       </c>
@@ -11275,7 +13094,7 @@
       </c>
       <c r="D586" s="1"/>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A587" s="2" t="s">
         <v>1119</v>
       </c>
@@ -11289,7 +13108,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="588" spans="1:4" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A588" s="2" t="s">
         <v>1119</v>
       </c>
@@ -11301,7 +13120,7 @@
       </c>
       <c r="D588" s="1"/>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A589" s="2" t="s">
         <v>1119</v>
       </c>
@@ -11313,7 +13132,7 @@
       </c>
       <c r="D589" s="1"/>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A590" s="2" t="s">
         <v>1119</v>
       </c>
@@ -11327,7 +13146,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A591" s="2" t="s">
         <v>1119</v>
       </c>
@@ -11339,7 +13158,7 @@
       </c>
       <c r="D591" s="1"/>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A592" s="2" t="s">
         <v>1119</v>
       </c>
@@ -11351,7 +13170,7 @@
       </c>
       <c r="D592" s="1"/>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A593" s="2" t="s">
         <v>1119</v>
       </c>
@@ -11363,7 +13182,7 @@
       </c>
       <c r="D593" s="1"/>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
         <v>1142</v>
       </c>
@@ -11377,7 +13196,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
         <v>1142</v>
       </c>
@@ -11389,7 +13208,7 @@
       </c>
       <c r="D595" s="1"/>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>1142</v>
       </c>
@@ -11401,7 +13220,7 @@
       </c>
       <c r="D596" s="1"/>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>1142</v>
       </c>
@@ -11413,7 +13232,7 @@
       </c>
       <c r="D597" s="1"/>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>1142</v>
       </c>
@@ -11425,7 +13244,7 @@
       </c>
       <c r="D598" s="1"/>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>1142</v>
       </c>
@@ -11437,7 +13256,7 @@
       </c>
       <c r="D599" s="1"/>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>1142</v>
       </c>
@@ -11449,7 +13268,7 @@
       </c>
       <c r="D600" s="1"/>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>1142</v>
       </c>
@@ -11461,7 +13280,7 @@
       </c>
       <c r="D601" s="1"/>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>1142</v>
       </c>
@@ -11473,7 +13292,7 @@
       </c>
       <c r="D602" s="1"/>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>1142</v>
       </c>
@@ -11485,7 +13304,7 @@
       </c>
       <c r="D603" s="1"/>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>1142</v>
       </c>
@@ -11497,7 +13316,7 @@
       </c>
       <c r="D604" s="1"/>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
         <v>1142</v>
       </c>
@@ -11509,7 +13328,7 @@
       </c>
       <c r="D605" s="1"/>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>1142</v>
       </c>
@@ -11521,7 +13340,7 @@
       </c>
       <c r="D606" s="1"/>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>1142</v>
       </c>
@@ -11533,7 +13352,7 @@
       </c>
       <c r="D607" s="1"/>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
         <v>1142</v>
       </c>
@@ -11545,7 +13364,7 @@
       </c>
       <c r="D608" s="1"/>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>1142</v>
       </c>
@@ -11557,7 +13376,7 @@
       </c>
       <c r="D609" s="1"/>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>1142</v>
       </c>
@@ -11569,7 +13388,7 @@
       </c>
       <c r="D610" s="1"/>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>1177</v>
       </c>
@@ -11581,7 +13400,7 @@
       </c>
       <c r="D611" s="1"/>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>1177</v>
       </c>
@@ -11593,7 +13412,7 @@
       </c>
       <c r="D612" s="1"/>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
         <v>1177</v>
       </c>
@@ -11605,7 +13424,7 @@
       </c>
       <c r="D613" s="1"/>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>1177</v>
       </c>
@@ -11617,7 +13436,7 @@
       </c>
       <c r="D614" s="1"/>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
         <v>1177</v>
       </c>
@@ -11629,7 +13448,7 @@
       </c>
       <c r="D615" s="1"/>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
         <v>1177</v>
       </c>
@@ -11641,7 +13460,7 @@
       </c>
       <c r="D616" s="1"/>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
         <v>1177</v>
       </c>
@@ -11653,7 +13472,7 @@
       </c>
       <c r="D617" s="1"/>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>1177</v>
       </c>
@@ -11665,7 +13484,7 @@
       </c>
       <c r="D618" s="1"/>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>1177</v>
       </c>
@@ -11677,7 +13496,7 @@
       </c>
       <c r="D619" s="1"/>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
         <v>1177</v>
       </c>
@@ -11689,7 +13508,7 @@
       </c>
       <c r="D620" s="1"/>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>1197</v>
       </c>
@@ -11701,7 +13520,7 @@
       </c>
       <c r="D621" s="1"/>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>1197</v>
       </c>
@@ -11713,7 +13532,7 @@
       </c>
       <c r="D622" s="1"/>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>1197</v>
       </c>
@@ -11725,7 +13544,7 @@
       </c>
       <c r="D623" s="1"/>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>1197</v>
       </c>
@@ -11737,7 +13556,7 @@
       </c>
       <c r="D624" s="1"/>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>1197</v>
       </c>
@@ -11749,7 +13568,7 @@
       </c>
       <c r="D625" s="1"/>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>1197</v>
       </c>
@@ -11761,7 +13580,7 @@
       </c>
       <c r="D626" s="1"/>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>1197</v>
       </c>
@@ -11773,7 +13592,7 @@
       </c>
       <c r="D627" s="1"/>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
         <v>1197</v>
       </c>
@@ -11785,7 +13604,7 @@
       </c>
       <c r="D628" s="1"/>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
         <v>1197</v>
       </c>
@@ -11799,7 +13618,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
         <v>1197</v>
       </c>
@@ -11811,7 +13630,7 @@
       </c>
       <c r="D630" s="1"/>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>1197</v>
       </c>
@@ -11823,7 +13642,7 @@
       </c>
       <c r="D631" s="1"/>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>1197</v>
       </c>
@@ -11835,7 +13654,7 @@
       </c>
       <c r="D632" s="1"/>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
         <v>1197</v>
       </c>
@@ -11847,7 +13666,7 @@
       </c>
       <c r="D633" s="1"/>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
         <v>1197</v>
       </c>
@@ -11859,7 +13678,7 @@
       </c>
       <c r="D634" s="1"/>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
         <v>1197</v>
       </c>
@@ -11872,7 +13691,7 @@
       <c r="D635" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D635"/>
+  <autoFilter ref="A1:D635" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
